--- a/www/docs/Monaco_AllIndicatorsAvailable_TerritorialRef_1993_2012_CCode_492.xlsx
+++ b/www/docs/Monaco_AllIndicatorsAvailable_TerritorialRef_1993_2012_CCode_492.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="557">
   <si>
     <t>Country Code</t>
   </si>
@@ -1580,6 +1580,9 @@
     <t>Monaco</t>
   </si>
   <si>
+    <t>Composite Measure of Wellbeing</t>
+  </si>
+  <si>
     <t>Homicide Rates</t>
   </si>
   <si>
@@ -1631,49 +1634,61 @@
     <t>Fink-Jensen, Jonathan (2015). Homicide Rates. http://hdl.handle.net/10622/FMI6L9, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_FMI6L9.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_H4C6B7.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_SNETZV.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_KICLW5.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_LZ0Y36.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_FMI6L9.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_H4C6B7.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_SNETZV.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_KICLW5.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_LZ0Y36.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_FMI6L9.bib</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_H4C6B7.bib</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_SNETZV.bib</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_KICLW5.bib</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_LZ0Y36.bib</t>
+    <t>Rijpma, Auke (2017). Composite measure of wellbeing. http://hdl.handle.net/10622/QIPFQF, accessed via the Clio Infra website.</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_QIPFQF.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_FMI6L9.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_H4C6B7.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_SNETZV.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_KICLW5.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_LZ0Y36.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_QIPFQF.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_FMI6L9.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_H4C6B7.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_SNETZV.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_KICLW5.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_LZ0Y36.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_QIPFQF.bib</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_FMI6L9.bib</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_H4C6B7.bib</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_SNETZV.bib</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_KICLW5.bib</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_LZ0Y36.bib</t>
   </si>
 </sst>
 </file>
@@ -3613,7 +3628,9 @@
       <c r="LI2"/>
       <c r="LJ2"/>
       <c r="LK2"/>
-      <c r="LL2"/>
+      <c r="LL2" t="n">
+        <v>-0.2275329</v>
+      </c>
       <c r="LM2"/>
       <c r="LN2"/>
       <c r="LO2"/>
@@ -3623,7 +3640,9 @@
       <c r="LS2"/>
       <c r="LT2"/>
       <c r="LU2"/>
-      <c r="LV2"/>
+      <c r="LV2" t="n">
+        <v>-0.1942121</v>
+      </c>
       <c r="LW2"/>
       <c r="LX2"/>
       <c r="LY2"/>
@@ -3633,7 +3652,9 @@
       <c r="MC2"/>
       <c r="MD2"/>
       <c r="ME2"/>
-      <c r="MF2"/>
+      <c r="MF2" t="n">
+        <v>-0.1473824</v>
+      </c>
       <c r="MG2"/>
       <c r="MH2"/>
       <c r="MI2"/>
@@ -3643,7 +3664,9 @@
       <c r="MM2"/>
       <c r="MN2"/>
       <c r="MO2"/>
-      <c r="MP2"/>
+      <c r="MP2" t="n">
+        <v>-0.001973003</v>
+      </c>
       <c r="MQ2"/>
       <c r="MR2"/>
       <c r="MS2"/>
@@ -3653,7 +3676,9 @@
       <c r="MW2"/>
       <c r="MX2"/>
       <c r="MY2"/>
-      <c r="MZ2"/>
+      <c r="MZ2" t="n">
+        <v>0.1038324</v>
+      </c>
       <c r="NA2"/>
       <c r="NB2"/>
       <c r="NC2"/>
@@ -3663,7 +3688,9 @@
       <c r="NG2"/>
       <c r="NH2"/>
       <c r="NI2"/>
-      <c r="NJ2"/>
+      <c r="NJ2" t="n">
+        <v>0.09958908</v>
+      </c>
       <c r="NK2"/>
       <c r="NL2"/>
       <c r="NM2"/>
@@ -3673,7 +3700,9 @@
       <c r="NQ2"/>
       <c r="NR2"/>
       <c r="NS2"/>
-      <c r="NT2"/>
+      <c r="NT2" t="n">
+        <v>0.2241644</v>
+      </c>
       <c r="NU2"/>
       <c r="NV2"/>
       <c r="NW2"/>
@@ -3683,7 +3712,9 @@
       <c r="OA2"/>
       <c r="OB2"/>
       <c r="OC2"/>
-      <c r="OD2"/>
+      <c r="OD2" t="n">
+        <v>0.3777208</v>
+      </c>
       <c r="OE2"/>
       <c r="OF2"/>
       <c r="OG2"/>
@@ -3693,7 +3724,9 @@
       <c r="OK2"/>
       <c r="OL2"/>
       <c r="OM2"/>
-      <c r="ON2"/>
+      <c r="ON2" t="n">
+        <v>0.5012833</v>
+      </c>
       <c r="OO2"/>
       <c r="OP2"/>
       <c r="OQ2"/>
@@ -3703,7 +3736,9 @@
       <c r="OU2"/>
       <c r="OV2"/>
       <c r="OW2"/>
-      <c r="OX2"/>
+      <c r="OX2" t="n">
+        <v>0.6158874</v>
+      </c>
       <c r="OY2"/>
       <c r="OZ2"/>
       <c r="PA2"/>
@@ -3713,7 +3748,9 @@
       <c r="PE2"/>
       <c r="PF2"/>
       <c r="PG2"/>
-      <c r="PH2"/>
+      <c r="PH2" t="n">
+        <v>0.7454062</v>
+      </c>
       <c r="PI2"/>
       <c r="PJ2"/>
       <c r="PK2"/>
@@ -3723,7 +3760,9 @@
       <c r="PO2"/>
       <c r="PP2"/>
       <c r="PQ2"/>
-      <c r="PR2"/>
+      <c r="PR2" t="n">
+        <v>0.8832946</v>
+      </c>
       <c r="PS2"/>
       <c r="PT2"/>
       <c r="PU2"/>
@@ -3733,7 +3772,9 @@
       <c r="PY2"/>
       <c r="PZ2"/>
       <c r="QA2"/>
-      <c r="QB2"/>
+      <c r="QB2" t="n">
+        <v>0.9679861</v>
+      </c>
       <c r="QC2"/>
       <c r="QD2"/>
       <c r="QE2"/>
@@ -3743,7 +3784,9 @@
       <c r="QI2"/>
       <c r="QJ2"/>
       <c r="QK2"/>
-      <c r="QL2"/>
+      <c r="QL2" t="n">
+        <v>1.224783</v>
+      </c>
       <c r="QM2"/>
       <c r="QN2"/>
       <c r="QO2"/>
@@ -3753,7 +3796,9 @@
       <c r="QS2"/>
       <c r="QT2"/>
       <c r="QU2"/>
-      <c r="QV2"/>
+      <c r="QV2" t="n">
+        <v>1.533651</v>
+      </c>
       <c r="QW2"/>
       <c r="QX2"/>
       <c r="QY2"/>
@@ -3763,7 +3808,9 @@
       <c r="RC2"/>
       <c r="RD2"/>
       <c r="RE2"/>
-      <c r="RF2"/>
+      <c r="RF2" t="n">
+        <v>1.829651</v>
+      </c>
       <c r="RG2"/>
       <c r="RH2"/>
       <c r="RI2"/>
@@ -3773,7 +3820,9 @@
       <c r="RM2"/>
       <c r="RN2"/>
       <c r="RO2"/>
-      <c r="RP2"/>
+      <c r="RP2" t="n">
+        <v>2.228956</v>
+      </c>
       <c r="RQ2"/>
       <c r="RR2"/>
       <c r="RS2"/>
@@ -3783,7 +3832,9 @@
       <c r="RW2"/>
       <c r="RX2"/>
       <c r="RY2"/>
-      <c r="RZ2"/>
+      <c r="RZ2" t="n">
+        <v>2.485108</v>
+      </c>
       <c r="SA2"/>
       <c r="SB2"/>
       <c r="SC2"/>
@@ -3793,28 +3844,18 @@
       <c r="SG2"/>
       <c r="SH2"/>
       <c r="SI2"/>
-      <c r="SJ2"/>
+      <c r="SJ2" t="n">
+        <v>2.762146</v>
+      </c>
       <c r="SK2"/>
       <c r="SL2"/>
       <c r="SM2"/>
-      <c r="SN2" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="SO2" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="SP2" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="SQ2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="SR2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="SS2" t="n">
-        <v>0.9</v>
-      </c>
+      <c r="SN2"/>
+      <c r="SO2"/>
+      <c r="SP2"/>
+      <c r="SQ2"/>
+      <c r="SR2"/>
+      <c r="SS2"/>
       <c r="ST2"/>
       <c r="SU2"/>
       <c r="SV2"/>
@@ -4327,45 +4368,33 @@
       <c r="SB3"/>
       <c r="SC3"/>
       <c r="SD3"/>
-      <c r="SE3" t="n">
+      <c r="SE3"/>
+      <c r="SF3"/>
+      <c r="SG3"/>
+      <c r="SH3"/>
+      <c r="SI3"/>
+      <c r="SJ3"/>
+      <c r="SK3"/>
+      <c r="SL3"/>
+      <c r="SM3"/>
+      <c r="SN3" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="SO3" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="SP3" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="SQ3" t="n">
         <v>0.0</v>
       </c>
-      <c r="SF3" t="n">
+      <c r="SR3" t="n">
         <v>0.0</v>
       </c>
-      <c r="SG3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="SH3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="SI3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="SJ3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="SK3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="SL3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="SM3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="SN3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="SO3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="SP3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="SQ3"/>
-      <c r="SR3"/>
-      <c r="SS3"/>
+      <c r="SS3" t="n">
+        <v>0.9</v>
+      </c>
       <c r="ST3"/>
       <c r="SU3"/>
       <c r="SV3"/>
@@ -4683,9 +4712,7 @@
       <c r="KO4"/>
       <c r="KP4"/>
       <c r="KQ4"/>
-      <c r="KR4" t="n">
-        <v>7.789</v>
-      </c>
+      <c r="KR4"/>
       <c r="KS4"/>
       <c r="KT4"/>
       <c r="KU4"/>
@@ -4705,9 +4732,7 @@
       <c r="LI4"/>
       <c r="LJ4"/>
       <c r="LK4"/>
-      <c r="LL4" t="n">
-        <v>7.789</v>
-      </c>
+      <c r="LL4"/>
       <c r="LM4"/>
       <c r="LN4"/>
       <c r="LO4"/>
@@ -4797,9 +4822,7 @@
       <c r="OU4"/>
       <c r="OV4"/>
       <c r="OW4"/>
-      <c r="OX4" t="n">
-        <v>23.0</v>
-      </c>
+      <c r="OX4"/>
       <c r="OY4"/>
       <c r="OZ4"/>
       <c r="PA4"/>
@@ -4809,9 +4832,7 @@
       <c r="PE4"/>
       <c r="PF4"/>
       <c r="PG4"/>
-      <c r="PH4" t="n">
-        <v>22.0</v>
-      </c>
+      <c r="PH4"/>
       <c r="PI4"/>
       <c r="PJ4"/>
       <c r="PK4"/>
@@ -4821,9 +4842,7 @@
       <c r="PO4"/>
       <c r="PP4"/>
       <c r="PQ4"/>
-      <c r="PR4" t="n">
-        <v>25.0</v>
-      </c>
+      <c r="PR4"/>
       <c r="PS4"/>
       <c r="PT4"/>
       <c r="PU4"/>
@@ -4833,9 +4852,7 @@
       <c r="PY4"/>
       <c r="PZ4"/>
       <c r="QA4"/>
-      <c r="QB4" t="n">
-        <v>24.0</v>
-      </c>
+      <c r="QB4"/>
       <c r="QC4"/>
       <c r="QD4"/>
       <c r="QE4"/>
@@ -4845,9 +4862,7 @@
       <c r="QI4"/>
       <c r="QJ4"/>
       <c r="QK4"/>
-      <c r="QL4" t="n">
-        <v>18.125</v>
-      </c>
+      <c r="QL4"/>
       <c r="QM4"/>
       <c r="QN4"/>
       <c r="QO4"/>
@@ -4857,9 +4872,7 @@
       <c r="QS4"/>
       <c r="QT4"/>
       <c r="QU4"/>
-      <c r="QV4" t="n">
-        <v>20.757</v>
-      </c>
+      <c r="QV4"/>
       <c r="QW4"/>
       <c r="QX4"/>
       <c r="QY4"/>
@@ -4869,9 +4882,7 @@
       <c r="RC4"/>
       <c r="RD4"/>
       <c r="RE4"/>
-      <c r="RF4" t="n">
-        <v>23.752</v>
-      </c>
+      <c r="RF4"/>
       <c r="RG4"/>
       <c r="RH4"/>
       <c r="RI4"/>
@@ -4881,9 +4892,7 @@
       <c r="RM4"/>
       <c r="RN4"/>
       <c r="RO4"/>
-      <c r="RP4" t="n">
-        <v>26.551</v>
-      </c>
+      <c r="RP4"/>
       <c r="RQ4"/>
       <c r="RR4"/>
       <c r="RS4"/>
@@ -4893,27 +4902,47 @@
       <c r="RW4"/>
       <c r="RX4"/>
       <c r="RY4"/>
-      <c r="RZ4" t="n">
-        <v>29.972</v>
-      </c>
+      <c r="RZ4"/>
       <c r="SA4"/>
       <c r="SB4"/>
       <c r="SC4"/>
       <c r="SD4"/>
-      <c r="SE4"/>
-      <c r="SF4"/>
-      <c r="SG4"/>
-      <c r="SH4"/>
-      <c r="SI4"/>
+      <c r="SE4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="SF4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="SG4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="SH4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="SI4" t="n">
+        <v>0.0</v>
+      </c>
       <c r="SJ4" t="n">
-        <v>31.693</v>
-      </c>
-      <c r="SK4"/>
-      <c r="SL4"/>
-      <c r="SM4"/>
-      <c r="SN4"/>
-      <c r="SO4"/>
-      <c r="SP4"/>
+        <v>0.0</v>
+      </c>
+      <c r="SK4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="SL4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="SM4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="SN4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="SO4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="SP4" t="n">
+        <v>0.0</v>
+      </c>
       <c r="SQ4"/>
       <c r="SR4"/>
       <c r="SS4"/>
@@ -4934,9 +4963,7 @@
       <c r="C5" t="s">
         <v>523</v>
       </c>
-      <c r="D5" t="n">
-        <v>2.0</v>
-      </c>
+      <c r="D5"/>
       <c r="E5"/>
       <c r="F5"/>
       <c r="G5"/>
@@ -4986,9 +5013,7 @@
       <c r="AY5"/>
       <c r="AZ5"/>
       <c r="BA5"/>
-      <c r="BB5" t="n">
-        <v>2.0</v>
-      </c>
+      <c r="BB5"/>
       <c r="BC5"/>
       <c r="BD5"/>
       <c r="BE5"/>
@@ -5038,9 +5063,7 @@
       <c r="CW5"/>
       <c r="CX5"/>
       <c r="CY5"/>
-      <c r="CZ5" t="n">
-        <v>2.0</v>
-      </c>
+      <c r="CZ5"/>
       <c r="DA5"/>
       <c r="DB5"/>
       <c r="DC5"/>
@@ -5090,9 +5113,7 @@
       <c r="EU5"/>
       <c r="EV5"/>
       <c r="EW5"/>
-      <c r="EX5" t="n">
-        <v>3.0</v>
-      </c>
+      <c r="EX5"/>
       <c r="EY5"/>
       <c r="EZ5"/>
       <c r="FA5"/>
@@ -5142,9 +5163,7 @@
       <c r="GS5"/>
       <c r="GT5"/>
       <c r="GU5"/>
-      <c r="GV5" t="n">
-        <v>3.0</v>
-      </c>
+      <c r="GV5"/>
       <c r="GW5"/>
       <c r="GX5"/>
       <c r="GY5"/>
@@ -5194,9 +5213,7 @@
       <c r="IQ5"/>
       <c r="IR5"/>
       <c r="IS5"/>
-      <c r="IT5" t="n">
-        <v>4.0</v>
-      </c>
+      <c r="IT5"/>
       <c r="IU5"/>
       <c r="IV5"/>
       <c r="IW5"/>
@@ -5247,7 +5264,7 @@
       <c r="KP5"/>
       <c r="KQ5"/>
       <c r="KR5" t="n">
-        <v>5.0</v>
+        <v>7.789</v>
       </c>
       <c r="KS5"/>
       <c r="KT5"/>
@@ -5268,7 +5285,9 @@
       <c r="LI5"/>
       <c r="LJ5"/>
       <c r="LK5"/>
-      <c r="LL5"/>
+      <c r="LL5" t="n">
+        <v>7.789</v>
+      </c>
       <c r="LM5"/>
       <c r="LN5"/>
       <c r="LO5"/>
@@ -5298,9 +5317,7 @@
       <c r="MM5"/>
       <c r="MN5"/>
       <c r="MO5"/>
-      <c r="MP5" t="n">
-        <v>10.0</v>
-      </c>
+      <c r="MP5"/>
       <c r="MQ5"/>
       <c r="MR5"/>
       <c r="MS5"/>
@@ -5350,9 +5367,7 @@
       <c r="OK5"/>
       <c r="OL5"/>
       <c r="OM5"/>
-      <c r="ON5" t="n">
-        <v>18.0</v>
-      </c>
+      <c r="ON5"/>
       <c r="OO5"/>
       <c r="OP5"/>
       <c r="OQ5"/>
@@ -5362,7 +5377,9 @@
       <c r="OU5"/>
       <c r="OV5"/>
       <c r="OW5"/>
-      <c r="OX5"/>
+      <c r="OX5" t="n">
+        <v>23.0</v>
+      </c>
       <c r="OY5"/>
       <c r="OZ5"/>
       <c r="PA5"/>
@@ -5372,7 +5389,9 @@
       <c r="PE5"/>
       <c r="PF5"/>
       <c r="PG5"/>
-      <c r="PH5"/>
+      <c r="PH5" t="n">
+        <v>22.0</v>
+      </c>
       <c r="PI5"/>
       <c r="PJ5"/>
       <c r="PK5"/>
@@ -5382,7 +5401,9 @@
       <c r="PO5"/>
       <c r="PP5"/>
       <c r="PQ5"/>
-      <c r="PR5"/>
+      <c r="PR5" t="n">
+        <v>25.0</v>
+      </c>
       <c r="PS5"/>
       <c r="PT5"/>
       <c r="PU5"/>
@@ -5392,7 +5413,9 @@
       <c r="PY5"/>
       <c r="PZ5"/>
       <c r="QA5"/>
-      <c r="QB5"/>
+      <c r="QB5" t="n">
+        <v>24.0</v>
+      </c>
       <c r="QC5"/>
       <c r="QD5"/>
       <c r="QE5"/>
@@ -5403,7 +5426,7 @@
       <c r="QJ5"/>
       <c r="QK5"/>
       <c r="QL5" t="n">
-        <v>25.0</v>
+        <v>18.125</v>
       </c>
       <c r="QM5"/>
       <c r="QN5"/>
@@ -5414,7 +5437,9 @@
       <c r="QS5"/>
       <c r="QT5"/>
       <c r="QU5"/>
-      <c r="QV5"/>
+      <c r="QV5" t="n">
+        <v>20.757</v>
+      </c>
       <c r="QW5"/>
       <c r="QX5"/>
       <c r="QY5"/>
@@ -5424,7 +5449,9 @@
       <c r="RC5"/>
       <c r="RD5"/>
       <c r="RE5"/>
-      <c r="RF5"/>
+      <c r="RF5" t="n">
+        <v>23.752</v>
+      </c>
       <c r="RG5"/>
       <c r="RH5"/>
       <c r="RI5"/>
@@ -5434,7 +5461,9 @@
       <c r="RM5"/>
       <c r="RN5"/>
       <c r="RO5"/>
-      <c r="RP5"/>
+      <c r="RP5" t="n">
+        <v>26.551</v>
+      </c>
       <c r="RQ5"/>
       <c r="RR5"/>
       <c r="RS5"/>
@@ -5444,7 +5473,9 @@
       <c r="RW5"/>
       <c r="RX5"/>
       <c r="RY5"/>
-      <c r="RZ5"/>
+      <c r="RZ5" t="n">
+        <v>29.972</v>
+      </c>
       <c r="SA5"/>
       <c r="SB5"/>
       <c r="SC5"/>
@@ -5455,7 +5486,7 @@
       <c r="SH5"/>
       <c r="SI5"/>
       <c r="SJ5" t="n">
-        <v>36.0</v>
+        <v>31.693</v>
       </c>
       <c r="SK5"/>
       <c r="SL5"/>
@@ -5483,7 +5514,9 @@
       <c r="C6" t="s">
         <v>524</v>
       </c>
-      <c r="D6"/>
+      <c r="D6" t="n">
+        <v>2.0</v>
+      </c>
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6"/>
@@ -5533,7 +5566,9 @@
       <c r="AY6"/>
       <c r="AZ6"/>
       <c r="BA6"/>
-      <c r="BB6"/>
+      <c r="BB6" t="n">
+        <v>2.0</v>
+      </c>
       <c r="BC6"/>
       <c r="BD6"/>
       <c r="BE6"/>
@@ -5583,7 +5618,9 @@
       <c r="CW6"/>
       <c r="CX6"/>
       <c r="CY6"/>
-      <c r="CZ6"/>
+      <c r="CZ6" t="n">
+        <v>2.0</v>
+      </c>
       <c r="DA6"/>
       <c r="DB6"/>
       <c r="DC6"/>
@@ -5633,7 +5670,9 @@
       <c r="EU6"/>
       <c r="EV6"/>
       <c r="EW6"/>
-      <c r="EX6"/>
+      <c r="EX6" t="n">
+        <v>3.0</v>
+      </c>
       <c r="EY6"/>
       <c r="EZ6"/>
       <c r="FA6"/>
@@ -5683,7 +5722,9 @@
       <c r="GS6"/>
       <c r="GT6"/>
       <c r="GU6"/>
-      <c r="GV6"/>
+      <c r="GV6" t="n">
+        <v>3.0</v>
+      </c>
       <c r="GW6"/>
       <c r="GX6"/>
       <c r="GY6"/>
@@ -5733,7 +5774,9 @@
       <c r="IQ6"/>
       <c r="IR6"/>
       <c r="IS6"/>
-      <c r="IT6"/>
+      <c r="IT6" t="n">
+        <v>4.0</v>
+      </c>
       <c r="IU6"/>
       <c r="IV6"/>
       <c r="IW6"/>
@@ -5784,7 +5827,7 @@
       <c r="KP6"/>
       <c r="KQ6"/>
       <c r="KR6" t="n">
-        <v>0.6419309</v>
+        <v>5.0</v>
       </c>
       <c r="KS6"/>
       <c r="KT6"/>
@@ -5835,7 +5878,9 @@
       <c r="MM6"/>
       <c r="MN6"/>
       <c r="MO6"/>
-      <c r="MP6"/>
+      <c r="MP6" t="n">
+        <v>10.0</v>
+      </c>
       <c r="MQ6"/>
       <c r="MR6"/>
       <c r="MS6"/>
@@ -5885,7 +5930,9 @@
       <c r="OK6"/>
       <c r="OL6"/>
       <c r="OM6"/>
-      <c r="ON6"/>
+      <c r="ON6" t="n">
+        <v>18.0</v>
+      </c>
       <c r="OO6"/>
       <c r="OP6"/>
       <c r="OQ6"/>
@@ -5936,7 +5983,7 @@
       <c r="QJ6"/>
       <c r="QK6"/>
       <c r="QL6" t="n">
-        <v>1.0</v>
+        <v>25.0</v>
       </c>
       <c r="QM6"/>
       <c r="QN6"/>
@@ -5988,7 +6035,7 @@
       <c r="SH6"/>
       <c r="SI6"/>
       <c r="SJ6" t="n">
-        <v>1.0</v>
+        <v>36.0</v>
       </c>
       <c r="SK6"/>
       <c r="SL6"/>
@@ -6005,6 +6052,539 @@
       <c r="SW6"/>
       <c r="SX6"/>
       <c r="SY6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>492.0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>519</v>
+      </c>
+      <c r="C7" t="s">
+        <v>525</v>
+      </c>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7"/>
+      <c r="W7"/>
+      <c r="X7"/>
+      <c r="Y7"/>
+      <c r="Z7"/>
+      <c r="AA7"/>
+      <c r="AB7"/>
+      <c r="AC7"/>
+      <c r="AD7"/>
+      <c r="AE7"/>
+      <c r="AF7"/>
+      <c r="AG7"/>
+      <c r="AH7"/>
+      <c r="AI7"/>
+      <c r="AJ7"/>
+      <c r="AK7"/>
+      <c r="AL7"/>
+      <c r="AM7"/>
+      <c r="AN7"/>
+      <c r="AO7"/>
+      <c r="AP7"/>
+      <c r="AQ7"/>
+      <c r="AR7"/>
+      <c r="AS7"/>
+      <c r="AT7"/>
+      <c r="AU7"/>
+      <c r="AV7"/>
+      <c r="AW7"/>
+      <c r="AX7"/>
+      <c r="AY7"/>
+      <c r="AZ7"/>
+      <c r="BA7"/>
+      <c r="BB7"/>
+      <c r="BC7"/>
+      <c r="BD7"/>
+      <c r="BE7"/>
+      <c r="BF7"/>
+      <c r="BG7"/>
+      <c r="BH7"/>
+      <c r="BI7"/>
+      <c r="BJ7"/>
+      <c r="BK7"/>
+      <c r="BL7"/>
+      <c r="BM7"/>
+      <c r="BN7"/>
+      <c r="BO7"/>
+      <c r="BP7"/>
+      <c r="BQ7"/>
+      <c r="BR7"/>
+      <c r="BS7"/>
+      <c r="BT7"/>
+      <c r="BU7"/>
+      <c r="BV7"/>
+      <c r="BW7"/>
+      <c r="BX7"/>
+      <c r="BY7"/>
+      <c r="BZ7"/>
+      <c r="CA7"/>
+      <c r="CB7"/>
+      <c r="CC7"/>
+      <c r="CD7"/>
+      <c r="CE7"/>
+      <c r="CF7"/>
+      <c r="CG7"/>
+      <c r="CH7"/>
+      <c r="CI7"/>
+      <c r="CJ7"/>
+      <c r="CK7"/>
+      <c r="CL7"/>
+      <c r="CM7"/>
+      <c r="CN7"/>
+      <c r="CO7"/>
+      <c r="CP7"/>
+      <c r="CQ7"/>
+      <c r="CR7"/>
+      <c r="CS7"/>
+      <c r="CT7"/>
+      <c r="CU7"/>
+      <c r="CV7"/>
+      <c r="CW7"/>
+      <c r="CX7"/>
+      <c r="CY7"/>
+      <c r="CZ7"/>
+      <c r="DA7"/>
+      <c r="DB7"/>
+      <c r="DC7"/>
+      <c r="DD7"/>
+      <c r="DE7"/>
+      <c r="DF7"/>
+      <c r="DG7"/>
+      <c r="DH7"/>
+      <c r="DI7"/>
+      <c r="DJ7"/>
+      <c r="DK7"/>
+      <c r="DL7"/>
+      <c r="DM7"/>
+      <c r="DN7"/>
+      <c r="DO7"/>
+      <c r="DP7"/>
+      <c r="DQ7"/>
+      <c r="DR7"/>
+      <c r="DS7"/>
+      <c r="DT7"/>
+      <c r="DU7"/>
+      <c r="DV7"/>
+      <c r="DW7"/>
+      <c r="DX7"/>
+      <c r="DY7"/>
+      <c r="DZ7"/>
+      <c r="EA7"/>
+      <c r="EB7"/>
+      <c r="EC7"/>
+      <c r="ED7"/>
+      <c r="EE7"/>
+      <c r="EF7"/>
+      <c r="EG7"/>
+      <c r="EH7"/>
+      <c r="EI7"/>
+      <c r="EJ7"/>
+      <c r="EK7"/>
+      <c r="EL7"/>
+      <c r="EM7"/>
+      <c r="EN7"/>
+      <c r="EO7"/>
+      <c r="EP7"/>
+      <c r="EQ7"/>
+      <c r="ER7"/>
+      <c r="ES7"/>
+      <c r="ET7"/>
+      <c r="EU7"/>
+      <c r="EV7"/>
+      <c r="EW7"/>
+      <c r="EX7"/>
+      <c r="EY7"/>
+      <c r="EZ7"/>
+      <c r="FA7"/>
+      <c r="FB7"/>
+      <c r="FC7"/>
+      <c r="FD7"/>
+      <c r="FE7"/>
+      <c r="FF7"/>
+      <c r="FG7"/>
+      <c r="FH7"/>
+      <c r="FI7"/>
+      <c r="FJ7"/>
+      <c r="FK7"/>
+      <c r="FL7"/>
+      <c r="FM7"/>
+      <c r="FN7"/>
+      <c r="FO7"/>
+      <c r="FP7"/>
+      <c r="FQ7"/>
+      <c r="FR7"/>
+      <c r="FS7"/>
+      <c r="FT7"/>
+      <c r="FU7"/>
+      <c r="FV7"/>
+      <c r="FW7"/>
+      <c r="FX7"/>
+      <c r="FY7"/>
+      <c r="FZ7"/>
+      <c r="GA7"/>
+      <c r="GB7"/>
+      <c r="GC7"/>
+      <c r="GD7"/>
+      <c r="GE7"/>
+      <c r="GF7"/>
+      <c r="GG7"/>
+      <c r="GH7"/>
+      <c r="GI7"/>
+      <c r="GJ7"/>
+      <c r="GK7"/>
+      <c r="GL7"/>
+      <c r="GM7"/>
+      <c r="GN7"/>
+      <c r="GO7"/>
+      <c r="GP7"/>
+      <c r="GQ7"/>
+      <c r="GR7"/>
+      <c r="GS7"/>
+      <c r="GT7"/>
+      <c r="GU7"/>
+      <c r="GV7"/>
+      <c r="GW7"/>
+      <c r="GX7"/>
+      <c r="GY7"/>
+      <c r="GZ7"/>
+      <c r="HA7"/>
+      <c r="HB7"/>
+      <c r="HC7"/>
+      <c r="HD7"/>
+      <c r="HE7"/>
+      <c r="HF7"/>
+      <c r="HG7"/>
+      <c r="HH7"/>
+      <c r="HI7"/>
+      <c r="HJ7"/>
+      <c r="HK7"/>
+      <c r="HL7"/>
+      <c r="HM7"/>
+      <c r="HN7"/>
+      <c r="HO7"/>
+      <c r="HP7"/>
+      <c r="HQ7"/>
+      <c r="HR7"/>
+      <c r="HS7"/>
+      <c r="HT7"/>
+      <c r="HU7"/>
+      <c r="HV7"/>
+      <c r="HW7"/>
+      <c r="HX7"/>
+      <c r="HY7"/>
+      <c r="HZ7"/>
+      <c r="IA7"/>
+      <c r="IB7"/>
+      <c r="IC7"/>
+      <c r="ID7"/>
+      <c r="IE7"/>
+      <c r="IF7"/>
+      <c r="IG7"/>
+      <c r="IH7"/>
+      <c r="II7"/>
+      <c r="IJ7"/>
+      <c r="IK7"/>
+      <c r="IL7"/>
+      <c r="IM7"/>
+      <c r="IN7"/>
+      <c r="IO7"/>
+      <c r="IP7"/>
+      <c r="IQ7"/>
+      <c r="IR7"/>
+      <c r="IS7"/>
+      <c r="IT7"/>
+      <c r="IU7"/>
+      <c r="IV7"/>
+      <c r="IW7"/>
+      <c r="IX7"/>
+      <c r="IY7"/>
+      <c r="IZ7"/>
+      <c r="JA7"/>
+      <c r="JB7"/>
+      <c r="JC7"/>
+      <c r="JD7"/>
+      <c r="JE7"/>
+      <c r="JF7"/>
+      <c r="JG7"/>
+      <c r="JH7"/>
+      <c r="JI7"/>
+      <c r="JJ7"/>
+      <c r="JK7"/>
+      <c r="JL7"/>
+      <c r="JM7"/>
+      <c r="JN7"/>
+      <c r="JO7"/>
+      <c r="JP7"/>
+      <c r="JQ7"/>
+      <c r="JR7"/>
+      <c r="JS7"/>
+      <c r="JT7"/>
+      <c r="JU7"/>
+      <c r="JV7"/>
+      <c r="JW7"/>
+      <c r="JX7"/>
+      <c r="JY7"/>
+      <c r="JZ7"/>
+      <c r="KA7"/>
+      <c r="KB7"/>
+      <c r="KC7"/>
+      <c r="KD7"/>
+      <c r="KE7"/>
+      <c r="KF7"/>
+      <c r="KG7"/>
+      <c r="KH7"/>
+      <c r="KI7"/>
+      <c r="KJ7"/>
+      <c r="KK7"/>
+      <c r="KL7"/>
+      <c r="KM7"/>
+      <c r="KN7"/>
+      <c r="KO7"/>
+      <c r="KP7"/>
+      <c r="KQ7"/>
+      <c r="KR7" t="n">
+        <v>0.6419309</v>
+      </c>
+      <c r="KS7"/>
+      <c r="KT7"/>
+      <c r="KU7"/>
+      <c r="KV7"/>
+      <c r="KW7"/>
+      <c r="KX7"/>
+      <c r="KY7"/>
+      <c r="KZ7"/>
+      <c r="LA7"/>
+      <c r="LB7"/>
+      <c r="LC7"/>
+      <c r="LD7"/>
+      <c r="LE7"/>
+      <c r="LF7"/>
+      <c r="LG7"/>
+      <c r="LH7"/>
+      <c r="LI7"/>
+      <c r="LJ7"/>
+      <c r="LK7"/>
+      <c r="LL7"/>
+      <c r="LM7"/>
+      <c r="LN7"/>
+      <c r="LO7"/>
+      <c r="LP7"/>
+      <c r="LQ7"/>
+      <c r="LR7"/>
+      <c r="LS7"/>
+      <c r="LT7"/>
+      <c r="LU7"/>
+      <c r="LV7"/>
+      <c r="LW7"/>
+      <c r="LX7"/>
+      <c r="LY7"/>
+      <c r="LZ7"/>
+      <c r="MA7"/>
+      <c r="MB7"/>
+      <c r="MC7"/>
+      <c r="MD7"/>
+      <c r="ME7"/>
+      <c r="MF7"/>
+      <c r="MG7"/>
+      <c r="MH7"/>
+      <c r="MI7"/>
+      <c r="MJ7"/>
+      <c r="MK7"/>
+      <c r="ML7"/>
+      <c r="MM7"/>
+      <c r="MN7"/>
+      <c r="MO7"/>
+      <c r="MP7"/>
+      <c r="MQ7"/>
+      <c r="MR7"/>
+      <c r="MS7"/>
+      <c r="MT7"/>
+      <c r="MU7"/>
+      <c r="MV7"/>
+      <c r="MW7"/>
+      <c r="MX7"/>
+      <c r="MY7"/>
+      <c r="MZ7"/>
+      <c r="NA7"/>
+      <c r="NB7"/>
+      <c r="NC7"/>
+      <c r="ND7"/>
+      <c r="NE7"/>
+      <c r="NF7"/>
+      <c r="NG7"/>
+      <c r="NH7"/>
+      <c r="NI7"/>
+      <c r="NJ7"/>
+      <c r="NK7"/>
+      <c r="NL7"/>
+      <c r="NM7"/>
+      <c r="NN7"/>
+      <c r="NO7"/>
+      <c r="NP7"/>
+      <c r="NQ7"/>
+      <c r="NR7"/>
+      <c r="NS7"/>
+      <c r="NT7"/>
+      <c r="NU7"/>
+      <c r="NV7"/>
+      <c r="NW7"/>
+      <c r="NX7"/>
+      <c r="NY7"/>
+      <c r="NZ7"/>
+      <c r="OA7"/>
+      <c r="OB7"/>
+      <c r="OC7"/>
+      <c r="OD7"/>
+      <c r="OE7"/>
+      <c r="OF7"/>
+      <c r="OG7"/>
+      <c r="OH7"/>
+      <c r="OI7"/>
+      <c r="OJ7"/>
+      <c r="OK7"/>
+      <c r="OL7"/>
+      <c r="OM7"/>
+      <c r="ON7"/>
+      <c r="OO7"/>
+      <c r="OP7"/>
+      <c r="OQ7"/>
+      <c r="OR7"/>
+      <c r="OS7"/>
+      <c r="OT7"/>
+      <c r="OU7"/>
+      <c r="OV7"/>
+      <c r="OW7"/>
+      <c r="OX7"/>
+      <c r="OY7"/>
+      <c r="OZ7"/>
+      <c r="PA7"/>
+      <c r="PB7"/>
+      <c r="PC7"/>
+      <c r="PD7"/>
+      <c r="PE7"/>
+      <c r="PF7"/>
+      <c r="PG7"/>
+      <c r="PH7"/>
+      <c r="PI7"/>
+      <c r="PJ7"/>
+      <c r="PK7"/>
+      <c r="PL7"/>
+      <c r="PM7"/>
+      <c r="PN7"/>
+      <c r="PO7"/>
+      <c r="PP7"/>
+      <c r="PQ7"/>
+      <c r="PR7"/>
+      <c r="PS7"/>
+      <c r="PT7"/>
+      <c r="PU7"/>
+      <c r="PV7"/>
+      <c r="PW7"/>
+      <c r="PX7"/>
+      <c r="PY7"/>
+      <c r="PZ7"/>
+      <c r="QA7"/>
+      <c r="QB7"/>
+      <c r="QC7"/>
+      <c r="QD7"/>
+      <c r="QE7"/>
+      <c r="QF7"/>
+      <c r="QG7"/>
+      <c r="QH7"/>
+      <c r="QI7"/>
+      <c r="QJ7"/>
+      <c r="QK7"/>
+      <c r="QL7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="QM7"/>
+      <c r="QN7"/>
+      <c r="QO7"/>
+      <c r="QP7"/>
+      <c r="QQ7"/>
+      <c r="QR7"/>
+      <c r="QS7"/>
+      <c r="QT7"/>
+      <c r="QU7"/>
+      <c r="QV7"/>
+      <c r="QW7"/>
+      <c r="QX7"/>
+      <c r="QY7"/>
+      <c r="QZ7"/>
+      <c r="RA7"/>
+      <c r="RB7"/>
+      <c r="RC7"/>
+      <c r="RD7"/>
+      <c r="RE7"/>
+      <c r="RF7"/>
+      <c r="RG7"/>
+      <c r="RH7"/>
+      <c r="RI7"/>
+      <c r="RJ7"/>
+      <c r="RK7"/>
+      <c r="RL7"/>
+      <c r="RM7"/>
+      <c r="RN7"/>
+      <c r="RO7"/>
+      <c r="RP7"/>
+      <c r="RQ7"/>
+      <c r="RR7"/>
+      <c r="RS7"/>
+      <c r="RT7"/>
+      <c r="RU7"/>
+      <c r="RV7"/>
+      <c r="RW7"/>
+      <c r="RX7"/>
+      <c r="RY7"/>
+      <c r="RZ7"/>
+      <c r="SA7"/>
+      <c r="SB7"/>
+      <c r="SC7"/>
+      <c r="SD7"/>
+      <c r="SE7"/>
+      <c r="SF7"/>
+      <c r="SG7"/>
+      <c r="SH7"/>
+      <c r="SI7"/>
+      <c r="SJ7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="SK7"/>
+      <c r="SL7"/>
+      <c r="SM7"/>
+      <c r="SN7"/>
+      <c r="SO7"/>
+      <c r="SP7"/>
+      <c r="SQ7"/>
+      <c r="SR7"/>
+      <c r="SS7"/>
+      <c r="ST7"/>
+      <c r="SU7"/>
+      <c r="SV7"/>
+      <c r="SW7"/>
+      <c r="SX7"/>
+      <c r="SY7"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -6030,10 +6610,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E1" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="2">
@@ -6044,7 +6624,7 @@
         <v>519</v>
       </c>
       <c r="C2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D2" t="n">
         <v>1500.0</v>
@@ -6061,7 +6641,7 @@
         <v>519</v>
       </c>
       <c r="C3" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D3" t="n">
         <v>1550.0</v>
@@ -6078,7 +6658,7 @@
         <v>519</v>
       </c>
       <c r="C4" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D4" t="n">
         <v>1600.0</v>
@@ -6095,7 +6675,7 @@
         <v>519</v>
       </c>
       <c r="C5" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D5" t="n">
         <v>1650.0</v>
@@ -6112,7 +6692,7 @@
         <v>519</v>
       </c>
       <c r="C6" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D6" t="n">
         <v>1700.0</v>
@@ -6129,7 +6709,7 @@
         <v>519</v>
       </c>
       <c r="C7" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D7" t="n">
         <v>1750.0</v>
@@ -6146,7 +6726,7 @@
         <v>519</v>
       </c>
       <c r="C8" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D8" t="n">
         <v>1800.0</v>
@@ -6163,7 +6743,7 @@
         <v>519</v>
       </c>
       <c r="C9" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D9" t="n">
         <v>1800.0</v>
@@ -6180,13 +6760,13 @@
         <v>519</v>
       </c>
       <c r="C10" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D10" t="n">
         <v>1800.0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6419309</v>
+        <v>0.641930928</v>
       </c>
     </row>
     <row r="11">
@@ -6197,13 +6777,13 @@
         <v>519</v>
       </c>
       <c r="C11" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D11" t="n">
         <v>1820.0</v>
       </c>
       <c r="E11" t="n">
-        <v>7.789</v>
+        <v>-0.227532916</v>
       </c>
     </row>
     <row r="12">
@@ -6217,10 +6797,10 @@
         <v>523</v>
       </c>
       <c r="D12" t="n">
-        <v>1850.0</v>
+        <v>1820.0</v>
       </c>
       <c r="E12" t="n">
-        <v>10.0</v>
+        <v>7.789</v>
       </c>
     </row>
     <row r="13">
@@ -6231,13 +6811,13 @@
         <v>519</v>
       </c>
       <c r="C13" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D13" t="n">
-        <v>1900.0</v>
+        <v>1830.0</v>
       </c>
       <c r="E13" t="n">
-        <v>18.0</v>
+        <v>-0.194212126</v>
       </c>
     </row>
     <row r="14">
@@ -6248,13 +6828,13 @@
         <v>519</v>
       </c>
       <c r="C14" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D14" t="n">
-        <v>1910.0</v>
+        <v>1840.0</v>
       </c>
       <c r="E14" t="n">
-        <v>23.0</v>
+        <v>-0.14738238</v>
       </c>
     </row>
     <row r="15">
@@ -6265,13 +6845,13 @@
         <v>519</v>
       </c>
       <c r="C15" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D15" t="n">
-        <v>1920.0</v>
+        <v>1850.0</v>
       </c>
       <c r="E15" t="n">
-        <v>22.0</v>
+        <v>-0.001973003</v>
       </c>
     </row>
     <row r="16">
@@ -6282,13 +6862,13 @@
         <v>519</v>
       </c>
       <c r="C16" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="D16" t="n">
-        <v>1930.0</v>
+        <v>1850.0</v>
       </c>
       <c r="E16" t="n">
-        <v>25.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="17">
@@ -6299,13 +6879,13 @@
         <v>519</v>
       </c>
       <c r="C17" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D17" t="n">
-        <v>1940.0</v>
+        <v>1860.0</v>
       </c>
       <c r="E17" t="n">
-        <v>24.0</v>
+        <v>0.103832394</v>
       </c>
     </row>
     <row r="18">
@@ -6316,13 +6896,13 @@
         <v>519</v>
       </c>
       <c r="C18" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D18" t="n">
-        <v>1950.0</v>
+        <v>1870.0</v>
       </c>
       <c r="E18" t="n">
-        <v>18.125</v>
+        <v>0.099589077</v>
       </c>
     </row>
     <row r="19">
@@ -6333,13 +6913,13 @@
         <v>519</v>
       </c>
       <c r="C19" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D19" t="n">
-        <v>1950.0</v>
+        <v>1880.0</v>
       </c>
       <c r="E19" t="n">
-        <v>25.0</v>
+        <v>0.22416443</v>
       </c>
     </row>
     <row r="20">
@@ -6350,13 +6930,13 @@
         <v>519</v>
       </c>
       <c r="C20" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="D20" t="n">
-        <v>1950.0</v>
+        <v>1890.0</v>
       </c>
       <c r="E20" t="n">
-        <v>1.0</v>
+        <v>0.377720834</v>
       </c>
     </row>
     <row r="21">
@@ -6367,13 +6947,13 @@
         <v>519</v>
       </c>
       <c r="C21" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D21" t="n">
-        <v>1960.0</v>
+        <v>1900.0</v>
       </c>
       <c r="E21" t="n">
-        <v>20.757</v>
+        <v>0.50128333</v>
       </c>
     </row>
     <row r="22">
@@ -6384,13 +6964,13 @@
         <v>519</v>
       </c>
       <c r="C22" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="D22" t="n">
-        <v>1970.0</v>
+        <v>1900.0</v>
       </c>
       <c r="E22" t="n">
-        <v>23.752</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="23">
@@ -6401,13 +6981,13 @@
         <v>519</v>
       </c>
       <c r="C23" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D23" t="n">
-        <v>1980.0</v>
+        <v>1910.0</v>
       </c>
       <c r="E23" t="n">
-        <v>26.551</v>
+        <v>0.615887421</v>
       </c>
     </row>
     <row r="24">
@@ -6418,13 +6998,13 @@
         <v>519</v>
       </c>
       <c r="C24" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D24" t="n">
-        <v>1990.0</v>
+        <v>1910.0</v>
       </c>
       <c r="E24" t="n">
-        <v>29.972</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="25">
@@ -6435,13 +7015,13 @@
         <v>519</v>
       </c>
       <c r="C25" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D25" t="n">
-        <v>1995.0</v>
+        <v>1920.0</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0</v>
+        <v>0.745406188</v>
       </c>
     </row>
     <row r="26">
@@ -6452,13 +7032,13 @@
         <v>519</v>
       </c>
       <c r="C26" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="D26" t="n">
-        <v>1996.0</v>
+        <v>1920.0</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="27">
@@ -6469,13 +7049,13 @@
         <v>519</v>
       </c>
       <c r="C27" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D27" t="n">
-        <v>1997.0</v>
+        <v>1930.0</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0</v>
+        <v>0.883294609</v>
       </c>
     </row>
     <row r="28">
@@ -6486,13 +7066,13 @@
         <v>519</v>
       </c>
       <c r="C28" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="D28" t="n">
-        <v>1998.0</v>
+        <v>1930.0</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="29">
@@ -6503,13 +7083,13 @@
         <v>519</v>
       </c>
       <c r="C29" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D29" t="n">
-        <v>1999.0</v>
+        <v>1940.0</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0</v>
+        <v>0.967986067</v>
       </c>
     </row>
     <row r="30">
@@ -6520,13 +7100,13 @@
         <v>519</v>
       </c>
       <c r="C30" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="D30" t="n">
-        <v>2000.0</v>
+        <v>1940.0</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="31">
@@ -6537,13 +7117,13 @@
         <v>519</v>
       </c>
       <c r="C31" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D31" t="n">
-        <v>2000.0</v>
+        <v>1950.0</v>
       </c>
       <c r="E31" t="n">
-        <v>31.693</v>
+        <v>1.224782881</v>
       </c>
     </row>
     <row r="32">
@@ -6557,10 +7137,10 @@
         <v>523</v>
       </c>
       <c r="D32" t="n">
-        <v>2000.0</v>
+        <v>1950.0</v>
       </c>
       <c r="E32" t="n">
-        <v>36.0</v>
+        <v>18.125</v>
       </c>
     </row>
     <row r="33">
@@ -6574,10 +7154,10 @@
         <v>524</v>
       </c>
       <c r="D33" t="n">
-        <v>2000.0</v>
+        <v>1950.0</v>
       </c>
       <c r="E33" t="n">
-        <v>1.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="34">
@@ -6588,13 +7168,13 @@
         <v>519</v>
       </c>
       <c r="C34" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="D34" t="n">
-        <v>2001.0</v>
+        <v>1950.0</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="35">
@@ -6605,13 +7185,13 @@
         <v>519</v>
       </c>
       <c r="C35" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D35" t="n">
-        <v>2002.0</v>
+        <v>1960.0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0</v>
+        <v>1.533650515</v>
       </c>
     </row>
     <row r="36">
@@ -6622,13 +7202,13 @@
         <v>519</v>
       </c>
       <c r="C36" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="D36" t="n">
-        <v>2003.0</v>
+        <v>1960.0</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0</v>
+        <v>20.757</v>
       </c>
     </row>
     <row r="37">
@@ -6642,10 +7222,10 @@
         <v>520</v>
       </c>
       <c r="D37" t="n">
-        <v>2004.0</v>
+        <v>1970.0</v>
       </c>
       <c r="E37" t="n">
-        <v>2.8</v>
+        <v>1.829651107</v>
       </c>
     </row>
     <row r="38">
@@ -6656,13 +7236,13 @@
         <v>519</v>
       </c>
       <c r="C38" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="D38" t="n">
-        <v>2004.0</v>
+        <v>1970.0</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0</v>
+        <v>23.752</v>
       </c>
     </row>
     <row r="39">
@@ -6676,10 +7256,10 @@
         <v>520</v>
       </c>
       <c r="D39" t="n">
-        <v>2005.0</v>
+        <v>1980.0</v>
       </c>
       <c r="E39" t="n">
-        <v>2.8</v>
+        <v>2.228955939</v>
       </c>
     </row>
     <row r="40">
@@ -6690,13 +7270,13 @@
         <v>519</v>
       </c>
       <c r="C40" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="D40" t="n">
-        <v>2005.0</v>
+        <v>1980.0</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0</v>
+        <v>26.551</v>
       </c>
     </row>
     <row r="41">
@@ -6710,10 +7290,10 @@
         <v>520</v>
       </c>
       <c r="D41" t="n">
-        <v>2006.0</v>
+        <v>1990.0</v>
       </c>
       <c r="E41" t="n">
-        <v>2.8</v>
+        <v>2.485107892</v>
       </c>
     </row>
     <row r="42">
@@ -6724,13 +7304,13 @@
         <v>519</v>
       </c>
       <c r="C42" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="D42" t="n">
-        <v>2006.0</v>
+        <v>1990.0</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0</v>
+        <v>29.972</v>
       </c>
     </row>
     <row r="43">
@@ -6741,10 +7321,10 @@
         <v>519</v>
       </c>
       <c r="C43" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="D43" t="n">
-        <v>2007.0</v>
+        <v>1995.0</v>
       </c>
       <c r="E43" t="n">
         <v>0.0</v>
@@ -6758,10 +7338,10 @@
         <v>519</v>
       </c>
       <c r="C44" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="D44" t="n">
-        <v>2008.0</v>
+        <v>1996.0</v>
       </c>
       <c r="E44" t="n">
         <v>0.0</v>
@@ -6775,12 +7355,335 @@
         <v>519</v>
       </c>
       <c r="C45" t="s">
+        <v>522</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1997.0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>492.0</v>
+      </c>
+      <c r="B46" t="s">
+        <v>519</v>
+      </c>
+      <c r="C46" t="s">
+        <v>522</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1998.0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>492.0</v>
+      </c>
+      <c r="B47" t="s">
+        <v>519</v>
+      </c>
+      <c r="C47" t="s">
+        <v>522</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1999.0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>492.0</v>
+      </c>
+      <c r="B48" t="s">
+        <v>519</v>
+      </c>
+      <c r="C48" t="s">
         <v>520</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D48" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>2.762145712</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>492.0</v>
+      </c>
+      <c r="B49" t="s">
+        <v>519</v>
+      </c>
+      <c r="C49" t="s">
+        <v>522</v>
+      </c>
+      <c r="D49" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>492.0</v>
+      </c>
+      <c r="B50" t="s">
+        <v>519</v>
+      </c>
+      <c r="C50" t="s">
+        <v>523</v>
+      </c>
+      <c r="D50" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>31.693</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>492.0</v>
+      </c>
+      <c r="B51" t="s">
+        <v>519</v>
+      </c>
+      <c r="C51" t="s">
+        <v>524</v>
+      </c>
+      <c r="D51" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>492.0</v>
+      </c>
+      <c r="B52" t="s">
+        <v>519</v>
+      </c>
+      <c r="C52" t="s">
+        <v>525</v>
+      </c>
+      <c r="D52" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>492.0</v>
+      </c>
+      <c r="B53" t="s">
+        <v>519</v>
+      </c>
+      <c r="C53" t="s">
+        <v>522</v>
+      </c>
+      <c r="D53" t="n">
+        <v>2001.0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>492.0</v>
+      </c>
+      <c r="B54" t="s">
+        <v>519</v>
+      </c>
+      <c r="C54" t="s">
+        <v>522</v>
+      </c>
+      <c r="D54" t="n">
+        <v>2002.0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>492.0</v>
+      </c>
+      <c r="B55" t="s">
+        <v>519</v>
+      </c>
+      <c r="C55" t="s">
+        <v>522</v>
+      </c>
+      <c r="D55" t="n">
+        <v>2003.0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>492.0</v>
+      </c>
+      <c r="B56" t="s">
+        <v>519</v>
+      </c>
+      <c r="C56" t="s">
+        <v>521</v>
+      </c>
+      <c r="D56" t="n">
+        <v>2004.0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>492.0</v>
+      </c>
+      <c r="B57" t="s">
+        <v>519</v>
+      </c>
+      <c r="C57" t="s">
+        <v>522</v>
+      </c>
+      <c r="D57" t="n">
+        <v>2004.0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>492.0</v>
+      </c>
+      <c r="B58" t="s">
+        <v>519</v>
+      </c>
+      <c r="C58" t="s">
+        <v>521</v>
+      </c>
+      <c r="D58" t="n">
+        <v>2005.0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>492.0</v>
+      </c>
+      <c r="B59" t="s">
+        <v>519</v>
+      </c>
+      <c r="C59" t="s">
+        <v>522</v>
+      </c>
+      <c r="D59" t="n">
+        <v>2005.0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>492.0</v>
+      </c>
+      <c r="B60" t="s">
+        <v>519</v>
+      </c>
+      <c r="C60" t="s">
+        <v>521</v>
+      </c>
+      <c r="D60" t="n">
+        <v>2006.0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>492.0</v>
+      </c>
+      <c r="B61" t="s">
+        <v>519</v>
+      </c>
+      <c r="C61" t="s">
+        <v>522</v>
+      </c>
+      <c r="D61" t="n">
+        <v>2006.0</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>492.0</v>
+      </c>
+      <c r="B62" t="s">
+        <v>519</v>
+      </c>
+      <c r="C62" t="s">
+        <v>521</v>
+      </c>
+      <c r="D62" t="n">
+        <v>2007.0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>492.0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>519</v>
+      </c>
+      <c r="C63" t="s">
+        <v>521</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2008.0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>492.0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>519</v>
+      </c>
+      <c r="C64" t="s">
+        <v>521</v>
+      </c>
+      <c r="D64" t="n">
         <v>2009.0</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E64" t="n">
         <v>0.9</v>
       </c>
     </row>
@@ -6799,18 +7702,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B2" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
   </sheetData>
@@ -6828,50 +7731,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B2" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B3" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B4" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B5" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B6" t="s">
-        <v>536</v>
+        <v>537</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>532</v>
+      </c>
+      <c r="B7" t="s">
+        <v>538</v>
       </c>
     </row>
   </sheetData>
@@ -6889,10 +7800,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="2">
@@ -6900,7 +7811,7 @@
         <v>520</v>
       </c>
       <c r="B2" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
     </row>
     <row r="3">
@@ -6908,7 +7819,7 @@
         <v>521</v>
       </c>
       <c r="B3" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="4">
@@ -6916,7 +7827,7 @@
         <v>522</v>
       </c>
       <c r="B4" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
     </row>
     <row r="5">
@@ -6924,7 +7835,7 @@
         <v>523</v>
       </c>
       <c r="B5" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="6">
@@ -6932,7 +7843,15 @@
         <v>524</v>
       </c>
       <c r="B6" t="s">
-        <v>541</v>
+        <v>543</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>525</v>
+      </c>
+      <c r="B7" t="s">
+        <v>544</v>
       </c>
     </row>
   </sheetData>
@@ -6950,10 +7869,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="2">
@@ -6961,7 +7880,7 @@
         <v>520</v>
       </c>
       <c r="B2" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
     </row>
     <row r="3">
@@ -6969,7 +7888,7 @@
         <v>521</v>
       </c>
       <c r="B3" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
     </row>
     <row r="4">
@@ -6977,7 +7896,7 @@
         <v>522</v>
       </c>
       <c r="B4" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
     </row>
     <row r="5">
@@ -6985,7 +7904,7 @@
         <v>523</v>
       </c>
       <c r="B5" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
     </row>
     <row r="6">
@@ -6993,7 +7912,15 @@
         <v>524</v>
       </c>
       <c r="B6" t="s">
-        <v>546</v>
+        <v>549</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>525</v>
+      </c>
+      <c r="B7" t="s">
+        <v>550</v>
       </c>
     </row>
   </sheetData>
@@ -7011,10 +7938,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="2">
@@ -7022,7 +7949,7 @@
         <v>520</v>
       </c>
       <c r="B2" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
     </row>
     <row r="3">
@@ -7030,7 +7957,7 @@
         <v>521</v>
       </c>
       <c r="B3" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="4">
@@ -7038,7 +7965,7 @@
         <v>522</v>
       </c>
       <c r="B4" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="5">
@@ -7046,7 +7973,7 @@
         <v>523</v>
       </c>
       <c r="B5" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
     </row>
     <row r="6">
@@ -7054,7 +7981,15 @@
         <v>524</v>
       </c>
       <c r="B6" t="s">
-        <v>551</v>
+        <v>555</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>525</v>
+      </c>
+      <c r="B7" t="s">
+        <v>556</v>
       </c>
     </row>
   </sheetData>

--- a/www/docs/Monaco_AllIndicatorsAvailable_TerritorialRef_1993_2012_CCode_492.xlsx
+++ b/www/docs/Monaco_AllIndicatorsAvailable_TerritorialRef_1993_2012_CCode_492.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="592">
   <si>
     <t>Country Code</t>
   </si>
@@ -1575,6 +1575,111 @@
   </si>
   <si>
     <t>2015</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>2025</t>
+  </si>
+  <si>
+    <t>2026</t>
+  </si>
+  <si>
+    <t>2027</t>
+  </si>
+  <si>
+    <t>2028</t>
+  </si>
+  <si>
+    <t>2029</t>
+  </si>
+  <si>
+    <t>2030</t>
+  </si>
+  <si>
+    <t>2031</t>
+  </si>
+  <si>
+    <t>2032</t>
+  </si>
+  <si>
+    <t>2033</t>
+  </si>
+  <si>
+    <t>2034</t>
+  </si>
+  <si>
+    <t>2035</t>
+  </si>
+  <si>
+    <t>2036</t>
+  </si>
+  <si>
+    <t>2037</t>
+  </si>
+  <si>
+    <t>2038</t>
+  </si>
+  <si>
+    <t>2039</t>
+  </si>
+  <si>
+    <t>2040</t>
+  </si>
+  <si>
+    <t>2041</t>
+  </si>
+  <si>
+    <t>2042</t>
+  </si>
+  <si>
+    <t>2043</t>
+  </si>
+  <si>
+    <t>2044</t>
+  </si>
+  <si>
+    <t>2045</t>
+  </si>
+  <si>
+    <t>2046</t>
+  </si>
+  <si>
+    <t>2047</t>
+  </si>
+  <si>
+    <t>2048</t>
+  </si>
+  <si>
+    <t>2049</t>
+  </si>
+  <si>
+    <t>2050</t>
   </si>
   <si>
     <t>Monaco</t>
@@ -3297,16 +3402,121 @@
       <c r="SY1" t="s">
         <v>518</v>
       </c>
+      <c r="SZ1" t="s">
+        <v>519</v>
+      </c>
+      <c r="TA1" t="s">
+        <v>520</v>
+      </c>
+      <c r="TB1" t="s">
+        <v>521</v>
+      </c>
+      <c r="TC1" t="s">
+        <v>522</v>
+      </c>
+      <c r="TD1" t="s">
+        <v>523</v>
+      </c>
+      <c r="TE1" t="s">
+        <v>524</v>
+      </c>
+      <c r="TF1" t="s">
+        <v>525</v>
+      </c>
+      <c r="TG1" t="s">
+        <v>526</v>
+      </c>
+      <c r="TH1" t="s">
+        <v>527</v>
+      </c>
+      <c r="TI1" t="s">
+        <v>528</v>
+      </c>
+      <c r="TJ1" t="s">
+        <v>529</v>
+      </c>
+      <c r="TK1" t="s">
+        <v>530</v>
+      </c>
+      <c r="TL1" t="s">
+        <v>531</v>
+      </c>
+      <c r="TM1" t="s">
+        <v>532</v>
+      </c>
+      <c r="TN1" t="s">
+        <v>533</v>
+      </c>
+      <c r="TO1" t="s">
+        <v>534</v>
+      </c>
+      <c r="TP1" t="s">
+        <v>535</v>
+      </c>
+      <c r="TQ1" t="s">
+        <v>536</v>
+      </c>
+      <c r="TR1" t="s">
+        <v>537</v>
+      </c>
+      <c r="TS1" t="s">
+        <v>538</v>
+      </c>
+      <c r="TT1" t="s">
+        <v>539</v>
+      </c>
+      <c r="TU1" t="s">
+        <v>540</v>
+      </c>
+      <c r="TV1" t="s">
+        <v>541</v>
+      </c>
+      <c r="TW1" t="s">
+        <v>542</v>
+      </c>
+      <c r="TX1" t="s">
+        <v>543</v>
+      </c>
+      <c r="TY1" t="s">
+        <v>544</v>
+      </c>
+      <c r="TZ1" t="s">
+        <v>545</v>
+      </c>
+      <c r="UA1" t="s">
+        <v>546</v>
+      </c>
+      <c r="UB1" t="s">
+        <v>547</v>
+      </c>
+      <c r="UC1" t="s">
+        <v>548</v>
+      </c>
+      <c r="UD1" t="s">
+        <v>549</v>
+      </c>
+      <c r="UE1" t="s">
+        <v>550</v>
+      </c>
+      <c r="UF1" t="s">
+        <v>551</v>
+      </c>
+      <c r="UG1" t="s">
+        <v>552</v>
+      </c>
+      <c r="UH1" t="s">
+        <v>553</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>492.0</v>
       </c>
       <c r="B2" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="C2" t="s">
-        <v>520</v>
+        <v>555</v>
       </c>
       <c r="D2"/>
       <c r="E2"/>
@@ -3862,16 +4072,51 @@
       <c r="SW2"/>
       <c r="SX2"/>
       <c r="SY2"/>
+      <c r="SZ2"/>
+      <c r="TA2"/>
+      <c r="TB2"/>
+      <c r="TC2"/>
+      <c r="TD2"/>
+      <c r="TE2"/>
+      <c r="TF2"/>
+      <c r="TG2"/>
+      <c r="TH2"/>
+      <c r="TI2"/>
+      <c r="TJ2"/>
+      <c r="TK2"/>
+      <c r="TL2"/>
+      <c r="TM2"/>
+      <c r="TN2"/>
+      <c r="TO2"/>
+      <c r="TP2"/>
+      <c r="TQ2"/>
+      <c r="TR2"/>
+      <c r="TS2"/>
+      <c r="TT2"/>
+      <c r="TU2"/>
+      <c r="TV2"/>
+      <c r="TW2"/>
+      <c r="TX2"/>
+      <c r="TY2"/>
+      <c r="TZ2"/>
+      <c r="UA2"/>
+      <c r="UB2"/>
+      <c r="UC2"/>
+      <c r="UD2"/>
+      <c r="UE2"/>
+      <c r="UF2"/>
+      <c r="UG2"/>
+      <c r="UH2"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>492.0</v>
       </c>
       <c r="B3" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="C3" t="s">
-        <v>521</v>
+        <v>556</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -4401,16 +4646,51 @@
       <c r="SW3"/>
       <c r="SX3"/>
       <c r="SY3"/>
+      <c r="SZ3"/>
+      <c r="TA3"/>
+      <c r="TB3"/>
+      <c r="TC3"/>
+      <c r="TD3"/>
+      <c r="TE3"/>
+      <c r="TF3"/>
+      <c r="TG3"/>
+      <c r="TH3"/>
+      <c r="TI3"/>
+      <c r="TJ3"/>
+      <c r="TK3"/>
+      <c r="TL3"/>
+      <c r="TM3"/>
+      <c r="TN3"/>
+      <c r="TO3"/>
+      <c r="TP3"/>
+      <c r="TQ3"/>
+      <c r="TR3"/>
+      <c r="TS3"/>
+      <c r="TT3"/>
+      <c r="TU3"/>
+      <c r="TV3"/>
+      <c r="TW3"/>
+      <c r="TX3"/>
+      <c r="TY3"/>
+      <c r="TZ3"/>
+      <c r="UA3"/>
+      <c r="UB3"/>
+      <c r="UC3"/>
+      <c r="UD3"/>
+      <c r="UE3"/>
+      <c r="UF3"/>
+      <c r="UG3"/>
+      <c r="UH3"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>492.0</v>
       </c>
       <c r="B4" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="C4" t="s">
-        <v>522</v>
+        <v>557</v>
       </c>
       <c r="D4"/>
       <c r="E4"/>
@@ -4952,16 +5232,51 @@
       <c r="SW4"/>
       <c r="SX4"/>
       <c r="SY4"/>
+      <c r="SZ4"/>
+      <c r="TA4"/>
+      <c r="TB4"/>
+      <c r="TC4"/>
+      <c r="TD4"/>
+      <c r="TE4"/>
+      <c r="TF4"/>
+      <c r="TG4"/>
+      <c r="TH4"/>
+      <c r="TI4"/>
+      <c r="TJ4"/>
+      <c r="TK4"/>
+      <c r="TL4"/>
+      <c r="TM4"/>
+      <c r="TN4"/>
+      <c r="TO4"/>
+      <c r="TP4"/>
+      <c r="TQ4"/>
+      <c r="TR4"/>
+      <c r="TS4"/>
+      <c r="TT4"/>
+      <c r="TU4"/>
+      <c r="TV4"/>
+      <c r="TW4"/>
+      <c r="TX4"/>
+      <c r="TY4"/>
+      <c r="TZ4"/>
+      <c r="UA4"/>
+      <c r="UB4"/>
+      <c r="UC4"/>
+      <c r="UD4"/>
+      <c r="UE4"/>
+      <c r="UF4"/>
+      <c r="UG4"/>
+      <c r="UH4"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>492.0</v>
       </c>
       <c r="B5" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="C5" t="s">
-        <v>523</v>
+        <v>558</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
@@ -5503,16 +5818,51 @@
       <c r="SW5"/>
       <c r="SX5"/>
       <c r="SY5"/>
+      <c r="SZ5"/>
+      <c r="TA5"/>
+      <c r="TB5"/>
+      <c r="TC5"/>
+      <c r="TD5"/>
+      <c r="TE5"/>
+      <c r="TF5"/>
+      <c r="TG5"/>
+      <c r="TH5"/>
+      <c r="TI5"/>
+      <c r="TJ5"/>
+      <c r="TK5"/>
+      <c r="TL5"/>
+      <c r="TM5"/>
+      <c r="TN5"/>
+      <c r="TO5"/>
+      <c r="TP5"/>
+      <c r="TQ5"/>
+      <c r="TR5"/>
+      <c r="TS5"/>
+      <c r="TT5"/>
+      <c r="TU5"/>
+      <c r="TV5"/>
+      <c r="TW5"/>
+      <c r="TX5"/>
+      <c r="TY5"/>
+      <c r="TZ5"/>
+      <c r="UA5"/>
+      <c r="UB5"/>
+      <c r="UC5"/>
+      <c r="UD5"/>
+      <c r="UE5"/>
+      <c r="UF5"/>
+      <c r="UG5"/>
+      <c r="UH5"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>492.0</v>
       </c>
       <c r="B6" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="C6" t="s">
-        <v>524</v>
+        <v>559</v>
       </c>
       <c r="D6" t="n">
         <v>2.0</v>
@@ -6052,16 +6402,51 @@
       <c r="SW6"/>
       <c r="SX6"/>
       <c r="SY6"/>
+      <c r="SZ6"/>
+      <c r="TA6"/>
+      <c r="TB6"/>
+      <c r="TC6"/>
+      <c r="TD6"/>
+      <c r="TE6"/>
+      <c r="TF6"/>
+      <c r="TG6"/>
+      <c r="TH6"/>
+      <c r="TI6"/>
+      <c r="TJ6"/>
+      <c r="TK6"/>
+      <c r="TL6"/>
+      <c r="TM6"/>
+      <c r="TN6"/>
+      <c r="TO6"/>
+      <c r="TP6"/>
+      <c r="TQ6"/>
+      <c r="TR6"/>
+      <c r="TS6"/>
+      <c r="TT6"/>
+      <c r="TU6"/>
+      <c r="TV6"/>
+      <c r="TW6"/>
+      <c r="TX6"/>
+      <c r="TY6"/>
+      <c r="TZ6"/>
+      <c r="UA6"/>
+      <c r="UB6"/>
+      <c r="UC6"/>
+      <c r="UD6"/>
+      <c r="UE6"/>
+      <c r="UF6"/>
+      <c r="UG6"/>
+      <c r="UH6"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>492.0</v>
       </c>
       <c r="B7" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="C7" t="s">
-        <v>525</v>
+        <v>560</v>
       </c>
       <c r="D7"/>
       <c r="E7"/>
@@ -6585,6 +6970,41 @@
       <c r="SW7"/>
       <c r="SX7"/>
       <c r="SY7"/>
+      <c r="SZ7"/>
+      <c r="TA7"/>
+      <c r="TB7"/>
+      <c r="TC7"/>
+      <c r="TD7"/>
+      <c r="TE7"/>
+      <c r="TF7"/>
+      <c r="TG7"/>
+      <c r="TH7"/>
+      <c r="TI7"/>
+      <c r="TJ7"/>
+      <c r="TK7"/>
+      <c r="TL7"/>
+      <c r="TM7"/>
+      <c r="TN7"/>
+      <c r="TO7"/>
+      <c r="TP7"/>
+      <c r="TQ7"/>
+      <c r="TR7"/>
+      <c r="TS7"/>
+      <c r="TT7"/>
+      <c r="TU7"/>
+      <c r="TV7"/>
+      <c r="TW7"/>
+      <c r="TX7"/>
+      <c r="TY7"/>
+      <c r="TZ7"/>
+      <c r="UA7"/>
+      <c r="UB7"/>
+      <c r="UC7"/>
+      <c r="UD7"/>
+      <c r="UE7"/>
+      <c r="UF7"/>
+      <c r="UG7"/>
+      <c r="UH7"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -6610,10 +7030,115 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>519</v>
+      </c>
+      <c r="E1" t="s">
+        <v>520</v>
+      </c>
+      <c r="F1" t="s">
+        <v>521</v>
+      </c>
+      <c r="G1" t="s">
+        <v>522</v>
+      </c>
+      <c r="H1" t="s">
+        <v>523</v>
+      </c>
+      <c r="I1" t="s">
+        <v>524</v>
+      </c>
+      <c r="J1" t="s">
+        <v>525</v>
+      </c>
+      <c r="K1" t="s">
         <v>526</v>
       </c>
-      <c r="E1" t="s">
+      <c r="L1" t="s">
         <v>527</v>
+      </c>
+      <c r="M1" t="s">
+        <v>528</v>
+      </c>
+      <c r="N1" t="s">
+        <v>529</v>
+      </c>
+      <c r="O1" t="s">
+        <v>530</v>
+      </c>
+      <c r="P1" t="s">
+        <v>531</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>532</v>
+      </c>
+      <c r="R1" t="s">
+        <v>533</v>
+      </c>
+      <c r="S1" t="s">
+        <v>534</v>
+      </c>
+      <c r="T1" t="s">
+        <v>535</v>
+      </c>
+      <c r="U1" t="s">
+        <v>536</v>
+      </c>
+      <c r="V1" t="s">
+        <v>537</v>
+      </c>
+      <c r="W1" t="s">
+        <v>538</v>
+      </c>
+      <c r="X1" t="s">
+        <v>539</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>540</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>541</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>542</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>543</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>544</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>545</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>546</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>547</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>548</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>549</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>550</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>551</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>552</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>553</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>561</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="2">
@@ -6621,15 +7146,50 @@
         <v>492.0</v>
       </c>
       <c r="B2" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="C2" t="s">
-        <v>524</v>
-      </c>
-      <c r="D2" t="n">
+        <v>559</v>
+      </c>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
+      <c r="Z2"/>
+      <c r="AA2"/>
+      <c r="AB2"/>
+      <c r="AC2"/>
+      <c r="AD2"/>
+      <c r="AE2"/>
+      <c r="AF2"/>
+      <c r="AG2"/>
+      <c r="AH2"/>
+      <c r="AI2"/>
+      <c r="AJ2"/>
+      <c r="AK2"/>
+      <c r="AL2"/>
+      <c r="AM2" t="n">
         <v>1500.0</v>
       </c>
-      <c r="E2" t="n">
+      <c r="AN2" t="n">
         <v>2.0</v>
       </c>
     </row>
@@ -6638,15 +7198,50 @@
         <v>492.0</v>
       </c>
       <c r="B3" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="C3" t="s">
-        <v>524</v>
-      </c>
-      <c r="D3" t="n">
+        <v>559</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3"/>
+      <c r="Y3"/>
+      <c r="Z3"/>
+      <c r="AA3"/>
+      <c r="AB3"/>
+      <c r="AC3"/>
+      <c r="AD3"/>
+      <c r="AE3"/>
+      <c r="AF3"/>
+      <c r="AG3"/>
+      <c r="AH3"/>
+      <c r="AI3"/>
+      <c r="AJ3"/>
+      <c r="AK3"/>
+      <c r="AL3"/>
+      <c r="AM3" t="n">
         <v>1550.0</v>
       </c>
-      <c r="E3" t="n">
+      <c r="AN3" t="n">
         <v>2.0</v>
       </c>
     </row>
@@ -6655,15 +7250,50 @@
         <v>492.0</v>
       </c>
       <c r="B4" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="C4" t="s">
-        <v>524</v>
-      </c>
-      <c r="D4" t="n">
+        <v>559</v>
+      </c>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+      <c r="X4"/>
+      <c r="Y4"/>
+      <c r="Z4"/>
+      <c r="AA4"/>
+      <c r="AB4"/>
+      <c r="AC4"/>
+      <c r="AD4"/>
+      <c r="AE4"/>
+      <c r="AF4"/>
+      <c r="AG4"/>
+      <c r="AH4"/>
+      <c r="AI4"/>
+      <c r="AJ4"/>
+      <c r="AK4"/>
+      <c r="AL4"/>
+      <c r="AM4" t="n">
         <v>1600.0</v>
       </c>
-      <c r="E4" t="n">
+      <c r="AN4" t="n">
         <v>2.0</v>
       </c>
     </row>
@@ -6672,15 +7302,50 @@
         <v>492.0</v>
       </c>
       <c r="B5" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="C5" t="s">
-        <v>524</v>
-      </c>
-      <c r="D5" t="n">
+        <v>559</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+      <c r="X5"/>
+      <c r="Y5"/>
+      <c r="Z5"/>
+      <c r="AA5"/>
+      <c r="AB5"/>
+      <c r="AC5"/>
+      <c r="AD5"/>
+      <c r="AE5"/>
+      <c r="AF5"/>
+      <c r="AG5"/>
+      <c r="AH5"/>
+      <c r="AI5"/>
+      <c r="AJ5"/>
+      <c r="AK5"/>
+      <c r="AL5"/>
+      <c r="AM5" t="n">
         <v>1650.0</v>
       </c>
-      <c r="E5" t="n">
+      <c r="AN5" t="n">
         <v>3.0</v>
       </c>
     </row>
@@ -6689,15 +7354,50 @@
         <v>492.0</v>
       </c>
       <c r="B6" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="C6" t="s">
-        <v>524</v>
-      </c>
-      <c r="D6" t="n">
+        <v>559</v>
+      </c>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
+      <c r="X6"/>
+      <c r="Y6"/>
+      <c r="Z6"/>
+      <c r="AA6"/>
+      <c r="AB6"/>
+      <c r="AC6"/>
+      <c r="AD6"/>
+      <c r="AE6"/>
+      <c r="AF6"/>
+      <c r="AG6"/>
+      <c r="AH6"/>
+      <c r="AI6"/>
+      <c r="AJ6"/>
+      <c r="AK6"/>
+      <c r="AL6"/>
+      <c r="AM6" t="n">
         <v>1700.0</v>
       </c>
-      <c r="E6" t="n">
+      <c r="AN6" t="n">
         <v>3.0</v>
       </c>
     </row>
@@ -6706,15 +7406,50 @@
         <v>492.0</v>
       </c>
       <c r="B7" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="C7" t="s">
-        <v>524</v>
-      </c>
-      <c r="D7" t="n">
+        <v>559</v>
+      </c>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7"/>
+      <c r="W7"/>
+      <c r="X7"/>
+      <c r="Y7"/>
+      <c r="Z7"/>
+      <c r="AA7"/>
+      <c r="AB7"/>
+      <c r="AC7"/>
+      <c r="AD7"/>
+      <c r="AE7"/>
+      <c r="AF7"/>
+      <c r="AG7"/>
+      <c r="AH7"/>
+      <c r="AI7"/>
+      <c r="AJ7"/>
+      <c r="AK7"/>
+      <c r="AL7"/>
+      <c r="AM7" t="n">
         <v>1750.0</v>
       </c>
-      <c r="E7" t="n">
+      <c r="AN7" t="n">
         <v>4.0</v>
       </c>
     </row>
@@ -6723,15 +7458,50 @@
         <v>492.0</v>
       </c>
       <c r="B8" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="C8" t="s">
-        <v>523</v>
-      </c>
-      <c r="D8" t="n">
+        <v>558</v>
+      </c>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+      <c r="R8"/>
+      <c r="S8"/>
+      <c r="T8"/>
+      <c r="U8"/>
+      <c r="V8"/>
+      <c r="W8"/>
+      <c r="X8"/>
+      <c r="Y8"/>
+      <c r="Z8"/>
+      <c r="AA8"/>
+      <c r="AB8"/>
+      <c r="AC8"/>
+      <c r="AD8"/>
+      <c r="AE8"/>
+      <c r="AF8"/>
+      <c r="AG8"/>
+      <c r="AH8"/>
+      <c r="AI8"/>
+      <c r="AJ8"/>
+      <c r="AK8"/>
+      <c r="AL8"/>
+      <c r="AM8" t="n">
         <v>1800.0</v>
       </c>
-      <c r="E8" t="n">
+      <c r="AN8" t="n">
         <v>7.789</v>
       </c>
     </row>
@@ -6740,15 +7510,50 @@
         <v>492.0</v>
       </c>
       <c r="B9" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="C9" t="s">
-        <v>524</v>
-      </c>
-      <c r="D9" t="n">
+        <v>559</v>
+      </c>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+      <c r="S9"/>
+      <c r="T9"/>
+      <c r="U9"/>
+      <c r="V9"/>
+      <c r="W9"/>
+      <c r="X9"/>
+      <c r="Y9"/>
+      <c r="Z9"/>
+      <c r="AA9"/>
+      <c r="AB9"/>
+      <c r="AC9"/>
+      <c r="AD9"/>
+      <c r="AE9"/>
+      <c r="AF9"/>
+      <c r="AG9"/>
+      <c r="AH9"/>
+      <c r="AI9"/>
+      <c r="AJ9"/>
+      <c r="AK9"/>
+      <c r="AL9"/>
+      <c r="AM9" t="n">
         <v>1800.0</v>
       </c>
-      <c r="E9" t="n">
+      <c r="AN9" t="n">
         <v>5.0</v>
       </c>
     </row>
@@ -6757,15 +7562,50 @@
         <v>492.0</v>
       </c>
       <c r="B10" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="C10" t="s">
-        <v>525</v>
-      </c>
-      <c r="D10" t="n">
+        <v>560</v>
+      </c>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
+      <c r="T10"/>
+      <c r="U10"/>
+      <c r="V10"/>
+      <c r="W10"/>
+      <c r="X10"/>
+      <c r="Y10"/>
+      <c r="Z10"/>
+      <c r="AA10"/>
+      <c r="AB10"/>
+      <c r="AC10"/>
+      <c r="AD10"/>
+      <c r="AE10"/>
+      <c r="AF10"/>
+      <c r="AG10"/>
+      <c r="AH10"/>
+      <c r="AI10"/>
+      <c r="AJ10"/>
+      <c r="AK10"/>
+      <c r="AL10"/>
+      <c r="AM10" t="n">
         <v>1800.0</v>
       </c>
-      <c r="E10" t="n">
+      <c r="AN10" t="n">
         <v>0.641930928</v>
       </c>
     </row>
@@ -6774,15 +7614,50 @@
         <v>492.0</v>
       </c>
       <c r="B11" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="C11" t="s">
-        <v>520</v>
-      </c>
-      <c r="D11" t="n">
+        <v>555</v>
+      </c>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+      <c r="S11"/>
+      <c r="T11"/>
+      <c r="U11"/>
+      <c r="V11"/>
+      <c r="W11"/>
+      <c r="X11"/>
+      <c r="Y11"/>
+      <c r="Z11"/>
+      <c r="AA11"/>
+      <c r="AB11"/>
+      <c r="AC11"/>
+      <c r="AD11"/>
+      <c r="AE11"/>
+      <c r="AF11"/>
+      <c r="AG11"/>
+      <c r="AH11"/>
+      <c r="AI11"/>
+      <c r="AJ11"/>
+      <c r="AK11"/>
+      <c r="AL11"/>
+      <c r="AM11" t="n">
         <v>1820.0</v>
       </c>
-      <c r="E11" t="n">
+      <c r="AN11" t="n">
         <v>-0.227532916</v>
       </c>
     </row>
@@ -6791,15 +7666,50 @@
         <v>492.0</v>
       </c>
       <c r="B12" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="C12" t="s">
-        <v>523</v>
-      </c>
-      <c r="D12" t="n">
+        <v>558</v>
+      </c>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="P12"/>
+      <c r="Q12"/>
+      <c r="R12"/>
+      <c r="S12"/>
+      <c r="T12"/>
+      <c r="U12"/>
+      <c r="V12"/>
+      <c r="W12"/>
+      <c r="X12"/>
+      <c r="Y12"/>
+      <c r="Z12"/>
+      <c r="AA12"/>
+      <c r="AB12"/>
+      <c r="AC12"/>
+      <c r="AD12"/>
+      <c r="AE12"/>
+      <c r="AF12"/>
+      <c r="AG12"/>
+      <c r="AH12"/>
+      <c r="AI12"/>
+      <c r="AJ12"/>
+      <c r="AK12"/>
+      <c r="AL12"/>
+      <c r="AM12" t="n">
         <v>1820.0</v>
       </c>
-      <c r="E12" t="n">
+      <c r="AN12" t="n">
         <v>7.789</v>
       </c>
     </row>
@@ -6808,15 +7718,50 @@
         <v>492.0</v>
       </c>
       <c r="B13" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="C13" t="s">
-        <v>520</v>
-      </c>
-      <c r="D13" t="n">
+        <v>555</v>
+      </c>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13"/>
+      <c r="R13"/>
+      <c r="S13"/>
+      <c r="T13"/>
+      <c r="U13"/>
+      <c r="V13"/>
+      <c r="W13"/>
+      <c r="X13"/>
+      <c r="Y13"/>
+      <c r="Z13"/>
+      <c r="AA13"/>
+      <c r="AB13"/>
+      <c r="AC13"/>
+      <c r="AD13"/>
+      <c r="AE13"/>
+      <c r="AF13"/>
+      <c r="AG13"/>
+      <c r="AH13"/>
+      <c r="AI13"/>
+      <c r="AJ13"/>
+      <c r="AK13"/>
+      <c r="AL13"/>
+      <c r="AM13" t="n">
         <v>1830.0</v>
       </c>
-      <c r="E13" t="n">
+      <c r="AN13" t="n">
         <v>-0.194212126</v>
       </c>
     </row>
@@ -6825,15 +7770,50 @@
         <v>492.0</v>
       </c>
       <c r="B14" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="C14" t="s">
-        <v>520</v>
-      </c>
-      <c r="D14" t="n">
+        <v>555</v>
+      </c>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14"/>
+      <c r="Q14"/>
+      <c r="R14"/>
+      <c r="S14"/>
+      <c r="T14"/>
+      <c r="U14"/>
+      <c r="V14"/>
+      <c r="W14"/>
+      <c r="X14"/>
+      <c r="Y14"/>
+      <c r="Z14"/>
+      <c r="AA14"/>
+      <c r="AB14"/>
+      <c r="AC14"/>
+      <c r="AD14"/>
+      <c r="AE14"/>
+      <c r="AF14"/>
+      <c r="AG14"/>
+      <c r="AH14"/>
+      <c r="AI14"/>
+      <c r="AJ14"/>
+      <c r="AK14"/>
+      <c r="AL14"/>
+      <c r="AM14" t="n">
         <v>1840.0</v>
       </c>
-      <c r="E14" t="n">
+      <c r="AN14" t="n">
         <v>-0.14738238</v>
       </c>
     </row>
@@ -6842,15 +7822,50 @@
         <v>492.0</v>
       </c>
       <c r="B15" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="C15" t="s">
-        <v>520</v>
-      </c>
-      <c r="D15" t="n">
+        <v>555</v>
+      </c>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15"/>
+      <c r="P15"/>
+      <c r="Q15"/>
+      <c r="R15"/>
+      <c r="S15"/>
+      <c r="T15"/>
+      <c r="U15"/>
+      <c r="V15"/>
+      <c r="W15"/>
+      <c r="X15"/>
+      <c r="Y15"/>
+      <c r="Z15"/>
+      <c r="AA15"/>
+      <c r="AB15"/>
+      <c r="AC15"/>
+      <c r="AD15"/>
+      <c r="AE15"/>
+      <c r="AF15"/>
+      <c r="AG15"/>
+      <c r="AH15"/>
+      <c r="AI15"/>
+      <c r="AJ15"/>
+      <c r="AK15"/>
+      <c r="AL15"/>
+      <c r="AM15" t="n">
         <v>1850.0</v>
       </c>
-      <c r="E15" t="n">
+      <c r="AN15" t="n">
         <v>-0.001973003</v>
       </c>
     </row>
@@ -6859,15 +7874,50 @@
         <v>492.0</v>
       </c>
       <c r="B16" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="C16" t="s">
-        <v>524</v>
-      </c>
-      <c r="D16" t="n">
+        <v>559</v>
+      </c>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16"/>
+      <c r="P16"/>
+      <c r="Q16"/>
+      <c r="R16"/>
+      <c r="S16"/>
+      <c r="T16"/>
+      <c r="U16"/>
+      <c r="V16"/>
+      <c r="W16"/>
+      <c r="X16"/>
+      <c r="Y16"/>
+      <c r="Z16"/>
+      <c r="AA16"/>
+      <c r="AB16"/>
+      <c r="AC16"/>
+      <c r="AD16"/>
+      <c r="AE16"/>
+      <c r="AF16"/>
+      <c r="AG16"/>
+      <c r="AH16"/>
+      <c r="AI16"/>
+      <c r="AJ16"/>
+      <c r="AK16"/>
+      <c r="AL16"/>
+      <c r="AM16" t="n">
         <v>1850.0</v>
       </c>
-      <c r="E16" t="n">
+      <c r="AN16" t="n">
         <v>10.0</v>
       </c>
     </row>
@@ -6876,15 +7926,50 @@
         <v>492.0</v>
       </c>
       <c r="B17" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="C17" t="s">
-        <v>520</v>
-      </c>
-      <c r="D17" t="n">
+        <v>555</v>
+      </c>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+      <c r="N17"/>
+      <c r="O17"/>
+      <c r="P17"/>
+      <c r="Q17"/>
+      <c r="R17"/>
+      <c r="S17"/>
+      <c r="T17"/>
+      <c r="U17"/>
+      <c r="V17"/>
+      <c r="W17"/>
+      <c r="X17"/>
+      <c r="Y17"/>
+      <c r="Z17"/>
+      <c r="AA17"/>
+      <c r="AB17"/>
+      <c r="AC17"/>
+      <c r="AD17"/>
+      <c r="AE17"/>
+      <c r="AF17"/>
+      <c r="AG17"/>
+      <c r="AH17"/>
+      <c r="AI17"/>
+      <c r="AJ17"/>
+      <c r="AK17"/>
+      <c r="AL17"/>
+      <c r="AM17" t="n">
         <v>1860.0</v>
       </c>
-      <c r="E17" t="n">
+      <c r="AN17" t="n">
         <v>0.103832394</v>
       </c>
     </row>
@@ -6893,15 +7978,50 @@
         <v>492.0</v>
       </c>
       <c r="B18" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="C18" t="s">
-        <v>520</v>
-      </c>
-      <c r="D18" t="n">
+        <v>555</v>
+      </c>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18"/>
+      <c r="N18"/>
+      <c r="O18"/>
+      <c r="P18"/>
+      <c r="Q18"/>
+      <c r="R18"/>
+      <c r="S18"/>
+      <c r="T18"/>
+      <c r="U18"/>
+      <c r="V18"/>
+      <c r="W18"/>
+      <c r="X18"/>
+      <c r="Y18"/>
+      <c r="Z18"/>
+      <c r="AA18"/>
+      <c r="AB18"/>
+      <c r="AC18"/>
+      <c r="AD18"/>
+      <c r="AE18"/>
+      <c r="AF18"/>
+      <c r="AG18"/>
+      <c r="AH18"/>
+      <c r="AI18"/>
+      <c r="AJ18"/>
+      <c r="AK18"/>
+      <c r="AL18"/>
+      <c r="AM18" t="n">
         <v>1870.0</v>
       </c>
-      <c r="E18" t="n">
+      <c r="AN18" t="n">
         <v>0.099589077</v>
       </c>
     </row>
@@ -6910,15 +8030,50 @@
         <v>492.0</v>
       </c>
       <c r="B19" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="C19" t="s">
-        <v>520</v>
-      </c>
-      <c r="D19" t="n">
+        <v>555</v>
+      </c>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="O19"/>
+      <c r="P19"/>
+      <c r="Q19"/>
+      <c r="R19"/>
+      <c r="S19"/>
+      <c r="T19"/>
+      <c r="U19"/>
+      <c r="V19"/>
+      <c r="W19"/>
+      <c r="X19"/>
+      <c r="Y19"/>
+      <c r="Z19"/>
+      <c r="AA19"/>
+      <c r="AB19"/>
+      <c r="AC19"/>
+      <c r="AD19"/>
+      <c r="AE19"/>
+      <c r="AF19"/>
+      <c r="AG19"/>
+      <c r="AH19"/>
+      <c r="AI19"/>
+      <c r="AJ19"/>
+      <c r="AK19"/>
+      <c r="AL19"/>
+      <c r="AM19" t="n">
         <v>1880.0</v>
       </c>
-      <c r="E19" t="n">
+      <c r="AN19" t="n">
         <v>0.22416443</v>
       </c>
     </row>
@@ -6927,15 +8082,50 @@
         <v>492.0</v>
       </c>
       <c r="B20" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="C20" t="s">
-        <v>520</v>
-      </c>
-      <c r="D20" t="n">
+        <v>555</v>
+      </c>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20"/>
+      <c r="P20"/>
+      <c r="Q20"/>
+      <c r="R20"/>
+      <c r="S20"/>
+      <c r="T20"/>
+      <c r="U20"/>
+      <c r="V20"/>
+      <c r="W20"/>
+      <c r="X20"/>
+      <c r="Y20"/>
+      <c r="Z20"/>
+      <c r="AA20"/>
+      <c r="AB20"/>
+      <c r="AC20"/>
+      <c r="AD20"/>
+      <c r="AE20"/>
+      <c r="AF20"/>
+      <c r="AG20"/>
+      <c r="AH20"/>
+      <c r="AI20"/>
+      <c r="AJ20"/>
+      <c r="AK20"/>
+      <c r="AL20"/>
+      <c r="AM20" t="n">
         <v>1890.0</v>
       </c>
-      <c r="E20" t="n">
+      <c r="AN20" t="n">
         <v>0.377720834</v>
       </c>
     </row>
@@ -6944,15 +8134,50 @@
         <v>492.0</v>
       </c>
       <c r="B21" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="C21" t="s">
-        <v>520</v>
-      </c>
-      <c r="D21" t="n">
+        <v>555</v>
+      </c>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21"/>
+      <c r="P21"/>
+      <c r="Q21"/>
+      <c r="R21"/>
+      <c r="S21"/>
+      <c r="T21"/>
+      <c r="U21"/>
+      <c r="V21"/>
+      <c r="W21"/>
+      <c r="X21"/>
+      <c r="Y21"/>
+      <c r="Z21"/>
+      <c r="AA21"/>
+      <c r="AB21"/>
+      <c r="AC21"/>
+      <c r="AD21"/>
+      <c r="AE21"/>
+      <c r="AF21"/>
+      <c r="AG21"/>
+      <c r="AH21"/>
+      <c r="AI21"/>
+      <c r="AJ21"/>
+      <c r="AK21"/>
+      <c r="AL21"/>
+      <c r="AM21" t="n">
         <v>1900.0</v>
       </c>
-      <c r="E21" t="n">
+      <c r="AN21" t="n">
         <v>0.50128333</v>
       </c>
     </row>
@@ -6961,15 +8186,50 @@
         <v>492.0</v>
       </c>
       <c r="B22" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="C22" t="s">
-        <v>524</v>
-      </c>
-      <c r="D22" t="n">
+        <v>559</v>
+      </c>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22"/>
+      <c r="P22"/>
+      <c r="Q22"/>
+      <c r="R22"/>
+      <c r="S22"/>
+      <c r="T22"/>
+      <c r="U22"/>
+      <c r="V22"/>
+      <c r="W22"/>
+      <c r="X22"/>
+      <c r="Y22"/>
+      <c r="Z22"/>
+      <c r="AA22"/>
+      <c r="AB22"/>
+      <c r="AC22"/>
+      <c r="AD22"/>
+      <c r="AE22"/>
+      <c r="AF22"/>
+      <c r="AG22"/>
+      <c r="AH22"/>
+      <c r="AI22"/>
+      <c r="AJ22"/>
+      <c r="AK22"/>
+      <c r="AL22"/>
+      <c r="AM22" t="n">
         <v>1900.0</v>
       </c>
-      <c r="E22" t="n">
+      <c r="AN22" t="n">
         <v>18.0</v>
       </c>
     </row>
@@ -6978,15 +8238,50 @@
         <v>492.0</v>
       </c>
       <c r="B23" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="C23" t="s">
-        <v>520</v>
-      </c>
-      <c r="D23" t="n">
+        <v>555</v>
+      </c>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
+      <c r="O23"/>
+      <c r="P23"/>
+      <c r="Q23"/>
+      <c r="R23"/>
+      <c r="S23"/>
+      <c r="T23"/>
+      <c r="U23"/>
+      <c r="V23"/>
+      <c r="W23"/>
+      <c r="X23"/>
+      <c r="Y23"/>
+      <c r="Z23"/>
+      <c r="AA23"/>
+      <c r="AB23"/>
+      <c r="AC23"/>
+      <c r="AD23"/>
+      <c r="AE23"/>
+      <c r="AF23"/>
+      <c r="AG23"/>
+      <c r="AH23"/>
+      <c r="AI23"/>
+      <c r="AJ23"/>
+      <c r="AK23"/>
+      <c r="AL23"/>
+      <c r="AM23" t="n">
         <v>1910.0</v>
       </c>
-      <c r="E23" t="n">
+      <c r="AN23" t="n">
         <v>0.615887421</v>
       </c>
     </row>
@@ -6995,15 +8290,50 @@
         <v>492.0</v>
       </c>
       <c r="B24" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="C24" t="s">
-        <v>523</v>
-      </c>
-      <c r="D24" t="n">
+        <v>558</v>
+      </c>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="N24"/>
+      <c r="O24"/>
+      <c r="P24"/>
+      <c r="Q24"/>
+      <c r="R24"/>
+      <c r="S24"/>
+      <c r="T24"/>
+      <c r="U24"/>
+      <c r="V24"/>
+      <c r="W24"/>
+      <c r="X24"/>
+      <c r="Y24"/>
+      <c r="Z24"/>
+      <c r="AA24"/>
+      <c r="AB24"/>
+      <c r="AC24"/>
+      <c r="AD24"/>
+      <c r="AE24"/>
+      <c r="AF24"/>
+      <c r="AG24"/>
+      <c r="AH24"/>
+      <c r="AI24"/>
+      <c r="AJ24"/>
+      <c r="AK24"/>
+      <c r="AL24"/>
+      <c r="AM24" t="n">
         <v>1910.0</v>
       </c>
-      <c r="E24" t="n">
+      <c r="AN24" t="n">
         <v>23.0</v>
       </c>
     </row>
@@ -7012,15 +8342,50 @@
         <v>492.0</v>
       </c>
       <c r="B25" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="C25" t="s">
-        <v>520</v>
-      </c>
-      <c r="D25" t="n">
+        <v>555</v>
+      </c>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25"/>
+      <c r="N25"/>
+      <c r="O25"/>
+      <c r="P25"/>
+      <c r="Q25"/>
+      <c r="R25"/>
+      <c r="S25"/>
+      <c r="T25"/>
+      <c r="U25"/>
+      <c r="V25"/>
+      <c r="W25"/>
+      <c r="X25"/>
+      <c r="Y25"/>
+      <c r="Z25"/>
+      <c r="AA25"/>
+      <c r="AB25"/>
+      <c r="AC25"/>
+      <c r="AD25"/>
+      <c r="AE25"/>
+      <c r="AF25"/>
+      <c r="AG25"/>
+      <c r="AH25"/>
+      <c r="AI25"/>
+      <c r="AJ25"/>
+      <c r="AK25"/>
+      <c r="AL25"/>
+      <c r="AM25" t="n">
         <v>1920.0</v>
       </c>
-      <c r="E25" t="n">
+      <c r="AN25" t="n">
         <v>0.745406188</v>
       </c>
     </row>
@@ -7029,15 +8394,50 @@
         <v>492.0</v>
       </c>
       <c r="B26" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="C26" t="s">
-        <v>523</v>
-      </c>
-      <c r="D26" t="n">
+        <v>558</v>
+      </c>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26"/>
+      <c r="O26"/>
+      <c r="P26"/>
+      <c r="Q26"/>
+      <c r="R26"/>
+      <c r="S26"/>
+      <c r="T26"/>
+      <c r="U26"/>
+      <c r="V26"/>
+      <c r="W26"/>
+      <c r="X26"/>
+      <c r="Y26"/>
+      <c r="Z26"/>
+      <c r="AA26"/>
+      <c r="AB26"/>
+      <c r="AC26"/>
+      <c r="AD26"/>
+      <c r="AE26"/>
+      <c r="AF26"/>
+      <c r="AG26"/>
+      <c r="AH26"/>
+      <c r="AI26"/>
+      <c r="AJ26"/>
+      <c r="AK26"/>
+      <c r="AL26"/>
+      <c r="AM26" t="n">
         <v>1920.0</v>
       </c>
-      <c r="E26" t="n">
+      <c r="AN26" t="n">
         <v>22.0</v>
       </c>
     </row>
@@ -7046,15 +8446,50 @@
         <v>492.0</v>
       </c>
       <c r="B27" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="C27" t="s">
-        <v>520</v>
-      </c>
-      <c r="D27" t="n">
+        <v>555</v>
+      </c>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27"/>
+      <c r="N27"/>
+      <c r="O27"/>
+      <c r="P27"/>
+      <c r="Q27"/>
+      <c r="R27"/>
+      <c r="S27"/>
+      <c r="T27"/>
+      <c r="U27"/>
+      <c r="V27"/>
+      <c r="W27"/>
+      <c r="X27"/>
+      <c r="Y27"/>
+      <c r="Z27"/>
+      <c r="AA27"/>
+      <c r="AB27"/>
+      <c r="AC27"/>
+      <c r="AD27"/>
+      <c r="AE27"/>
+      <c r="AF27"/>
+      <c r="AG27"/>
+      <c r="AH27"/>
+      <c r="AI27"/>
+      <c r="AJ27"/>
+      <c r="AK27"/>
+      <c r="AL27"/>
+      <c r="AM27" t="n">
         <v>1930.0</v>
       </c>
-      <c r="E27" t="n">
+      <c r="AN27" t="n">
         <v>0.883294609</v>
       </c>
     </row>
@@ -7063,15 +8498,50 @@
         <v>492.0</v>
       </c>
       <c r="B28" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="C28" t="s">
-        <v>523</v>
-      </c>
-      <c r="D28" t="n">
+        <v>558</v>
+      </c>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+      <c r="M28"/>
+      <c r="N28"/>
+      <c r="O28"/>
+      <c r="P28"/>
+      <c r="Q28"/>
+      <c r="R28"/>
+      <c r="S28"/>
+      <c r="T28"/>
+      <c r="U28"/>
+      <c r="V28"/>
+      <c r="W28"/>
+      <c r="X28"/>
+      <c r="Y28"/>
+      <c r="Z28"/>
+      <c r="AA28"/>
+      <c r="AB28"/>
+      <c r="AC28"/>
+      <c r="AD28"/>
+      <c r="AE28"/>
+      <c r="AF28"/>
+      <c r="AG28"/>
+      <c r="AH28"/>
+      <c r="AI28"/>
+      <c r="AJ28"/>
+      <c r="AK28"/>
+      <c r="AL28"/>
+      <c r="AM28" t="n">
         <v>1930.0</v>
       </c>
-      <c r="E28" t="n">
+      <c r="AN28" t="n">
         <v>25.0</v>
       </c>
     </row>
@@ -7080,15 +8550,50 @@
         <v>492.0</v>
       </c>
       <c r="B29" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="C29" t="s">
-        <v>520</v>
-      </c>
-      <c r="D29" t="n">
+        <v>555</v>
+      </c>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29"/>
+      <c r="M29"/>
+      <c r="N29"/>
+      <c r="O29"/>
+      <c r="P29"/>
+      <c r="Q29"/>
+      <c r="R29"/>
+      <c r="S29"/>
+      <c r="T29"/>
+      <c r="U29"/>
+      <c r="V29"/>
+      <c r="W29"/>
+      <c r="X29"/>
+      <c r="Y29"/>
+      <c r="Z29"/>
+      <c r="AA29"/>
+      <c r="AB29"/>
+      <c r="AC29"/>
+      <c r="AD29"/>
+      <c r="AE29"/>
+      <c r="AF29"/>
+      <c r="AG29"/>
+      <c r="AH29"/>
+      <c r="AI29"/>
+      <c r="AJ29"/>
+      <c r="AK29"/>
+      <c r="AL29"/>
+      <c r="AM29" t="n">
         <v>1940.0</v>
       </c>
-      <c r="E29" t="n">
+      <c r="AN29" t="n">
         <v>0.967986067</v>
       </c>
     </row>
@@ -7097,15 +8602,50 @@
         <v>492.0</v>
       </c>
       <c r="B30" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="C30" t="s">
-        <v>523</v>
-      </c>
-      <c r="D30" t="n">
+        <v>558</v>
+      </c>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30"/>
+      <c r="N30"/>
+      <c r="O30"/>
+      <c r="P30"/>
+      <c r="Q30"/>
+      <c r="R30"/>
+      <c r="S30"/>
+      <c r="T30"/>
+      <c r="U30"/>
+      <c r="V30"/>
+      <c r="W30"/>
+      <c r="X30"/>
+      <c r="Y30"/>
+      <c r="Z30"/>
+      <c r="AA30"/>
+      <c r="AB30"/>
+      <c r="AC30"/>
+      <c r="AD30"/>
+      <c r="AE30"/>
+      <c r="AF30"/>
+      <c r="AG30"/>
+      <c r="AH30"/>
+      <c r="AI30"/>
+      <c r="AJ30"/>
+      <c r="AK30"/>
+      <c r="AL30"/>
+      <c r="AM30" t="n">
         <v>1940.0</v>
       </c>
-      <c r="E30" t="n">
+      <c r="AN30" t="n">
         <v>24.0</v>
       </c>
     </row>
@@ -7114,15 +8654,50 @@
         <v>492.0</v>
       </c>
       <c r="B31" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="C31" t="s">
-        <v>520</v>
-      </c>
-      <c r="D31" t="n">
+        <v>555</v>
+      </c>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
+      <c r="M31"/>
+      <c r="N31"/>
+      <c r="O31"/>
+      <c r="P31"/>
+      <c r="Q31"/>
+      <c r="R31"/>
+      <c r="S31"/>
+      <c r="T31"/>
+      <c r="U31"/>
+      <c r="V31"/>
+      <c r="W31"/>
+      <c r="X31"/>
+      <c r="Y31"/>
+      <c r="Z31"/>
+      <c r="AA31"/>
+      <c r="AB31"/>
+      <c r="AC31"/>
+      <c r="AD31"/>
+      <c r="AE31"/>
+      <c r="AF31"/>
+      <c r="AG31"/>
+      <c r="AH31"/>
+      <c r="AI31"/>
+      <c r="AJ31"/>
+      <c r="AK31"/>
+      <c r="AL31"/>
+      <c r="AM31" t="n">
         <v>1950.0</v>
       </c>
-      <c r="E31" t="n">
+      <c r="AN31" t="n">
         <v>1.224782881</v>
       </c>
     </row>
@@ -7131,15 +8706,50 @@
         <v>492.0</v>
       </c>
       <c r="B32" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="C32" t="s">
-        <v>523</v>
-      </c>
-      <c r="D32" t="n">
+        <v>558</v>
+      </c>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32"/>
+      <c r="L32"/>
+      <c r="M32"/>
+      <c r="N32"/>
+      <c r="O32"/>
+      <c r="P32"/>
+      <c r="Q32"/>
+      <c r="R32"/>
+      <c r="S32"/>
+      <c r="T32"/>
+      <c r="U32"/>
+      <c r="V32"/>
+      <c r="W32"/>
+      <c r="X32"/>
+      <c r="Y32"/>
+      <c r="Z32"/>
+      <c r="AA32"/>
+      <c r="AB32"/>
+      <c r="AC32"/>
+      <c r="AD32"/>
+      <c r="AE32"/>
+      <c r="AF32"/>
+      <c r="AG32"/>
+      <c r="AH32"/>
+      <c r="AI32"/>
+      <c r="AJ32"/>
+      <c r="AK32"/>
+      <c r="AL32"/>
+      <c r="AM32" t="n">
         <v>1950.0</v>
       </c>
-      <c r="E32" t="n">
+      <c r="AN32" t="n">
         <v>18.125</v>
       </c>
     </row>
@@ -7148,15 +8758,50 @@
         <v>492.0</v>
       </c>
       <c r="B33" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="C33" t="s">
-        <v>524</v>
-      </c>
-      <c r="D33" t="n">
+        <v>559</v>
+      </c>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33"/>
+      <c r="N33"/>
+      <c r="O33"/>
+      <c r="P33"/>
+      <c r="Q33"/>
+      <c r="R33"/>
+      <c r="S33"/>
+      <c r="T33"/>
+      <c r="U33"/>
+      <c r="V33"/>
+      <c r="W33"/>
+      <c r="X33"/>
+      <c r="Y33"/>
+      <c r="Z33"/>
+      <c r="AA33"/>
+      <c r="AB33"/>
+      <c r="AC33"/>
+      <c r="AD33"/>
+      <c r="AE33"/>
+      <c r="AF33"/>
+      <c r="AG33"/>
+      <c r="AH33"/>
+      <c r="AI33"/>
+      <c r="AJ33"/>
+      <c r="AK33"/>
+      <c r="AL33"/>
+      <c r="AM33" t="n">
         <v>1950.0</v>
       </c>
-      <c r="E33" t="n">
+      <c r="AN33" t="n">
         <v>25.0</v>
       </c>
     </row>
@@ -7165,15 +8810,50 @@
         <v>492.0</v>
       </c>
       <c r="B34" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="C34" t="s">
-        <v>525</v>
-      </c>
-      <c r="D34" t="n">
+        <v>560</v>
+      </c>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34"/>
+      <c r="K34"/>
+      <c r="L34"/>
+      <c r="M34"/>
+      <c r="N34"/>
+      <c r="O34"/>
+      <c r="P34"/>
+      <c r="Q34"/>
+      <c r="R34"/>
+      <c r="S34"/>
+      <c r="T34"/>
+      <c r="U34"/>
+      <c r="V34"/>
+      <c r="W34"/>
+      <c r="X34"/>
+      <c r="Y34"/>
+      <c r="Z34"/>
+      <c r="AA34"/>
+      <c r="AB34"/>
+      <c r="AC34"/>
+      <c r="AD34"/>
+      <c r="AE34"/>
+      <c r="AF34"/>
+      <c r="AG34"/>
+      <c r="AH34"/>
+      <c r="AI34"/>
+      <c r="AJ34"/>
+      <c r="AK34"/>
+      <c r="AL34"/>
+      <c r="AM34" t="n">
         <v>1950.0</v>
       </c>
-      <c r="E34" t="n">
+      <c r="AN34" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -7182,15 +8862,50 @@
         <v>492.0</v>
       </c>
       <c r="B35" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="C35" t="s">
-        <v>520</v>
-      </c>
-      <c r="D35" t="n">
+        <v>555</v>
+      </c>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="O35"/>
+      <c r="P35"/>
+      <c r="Q35"/>
+      <c r="R35"/>
+      <c r="S35"/>
+      <c r="T35"/>
+      <c r="U35"/>
+      <c r="V35"/>
+      <c r="W35"/>
+      <c r="X35"/>
+      <c r="Y35"/>
+      <c r="Z35"/>
+      <c r="AA35"/>
+      <c r="AB35"/>
+      <c r="AC35"/>
+      <c r="AD35"/>
+      <c r="AE35"/>
+      <c r="AF35"/>
+      <c r="AG35"/>
+      <c r="AH35"/>
+      <c r="AI35"/>
+      <c r="AJ35"/>
+      <c r="AK35"/>
+      <c r="AL35"/>
+      <c r="AM35" t="n">
         <v>1960.0</v>
       </c>
-      <c r="E35" t="n">
+      <c r="AN35" t="n">
         <v>1.533650515</v>
       </c>
     </row>
@@ -7199,15 +8914,50 @@
         <v>492.0</v>
       </c>
       <c r="B36" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="C36" t="s">
-        <v>523</v>
-      </c>
-      <c r="D36" t="n">
+        <v>558</v>
+      </c>
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36"/>
+      <c r="J36"/>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36"/>
+      <c r="O36"/>
+      <c r="P36"/>
+      <c r="Q36"/>
+      <c r="R36"/>
+      <c r="S36"/>
+      <c r="T36"/>
+      <c r="U36"/>
+      <c r="V36"/>
+      <c r="W36"/>
+      <c r="X36"/>
+      <c r="Y36"/>
+      <c r="Z36"/>
+      <c r="AA36"/>
+      <c r="AB36"/>
+      <c r="AC36"/>
+      <c r="AD36"/>
+      <c r="AE36"/>
+      <c r="AF36"/>
+      <c r="AG36"/>
+      <c r="AH36"/>
+      <c r="AI36"/>
+      <c r="AJ36"/>
+      <c r="AK36"/>
+      <c r="AL36"/>
+      <c r="AM36" t="n">
         <v>1960.0</v>
       </c>
-      <c r="E36" t="n">
+      <c r="AN36" t="n">
         <v>20.757</v>
       </c>
     </row>
@@ -7216,15 +8966,50 @@
         <v>492.0</v>
       </c>
       <c r="B37" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="C37" t="s">
-        <v>520</v>
-      </c>
-      <c r="D37" t="n">
+        <v>555</v>
+      </c>
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37"/>
+      <c r="H37"/>
+      <c r="I37"/>
+      <c r="J37"/>
+      <c r="K37"/>
+      <c r="L37"/>
+      <c r="M37"/>
+      <c r="N37"/>
+      <c r="O37"/>
+      <c r="P37"/>
+      <c r="Q37"/>
+      <c r="R37"/>
+      <c r="S37"/>
+      <c r="T37"/>
+      <c r="U37"/>
+      <c r="V37"/>
+      <c r="W37"/>
+      <c r="X37"/>
+      <c r="Y37"/>
+      <c r="Z37"/>
+      <c r="AA37"/>
+      <c r="AB37"/>
+      <c r="AC37"/>
+      <c r="AD37"/>
+      <c r="AE37"/>
+      <c r="AF37"/>
+      <c r="AG37"/>
+      <c r="AH37"/>
+      <c r="AI37"/>
+      <c r="AJ37"/>
+      <c r="AK37"/>
+      <c r="AL37"/>
+      <c r="AM37" t="n">
         <v>1970.0</v>
       </c>
-      <c r="E37" t="n">
+      <c r="AN37" t="n">
         <v>1.829651107</v>
       </c>
     </row>
@@ -7233,15 +9018,50 @@
         <v>492.0</v>
       </c>
       <c r="B38" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="C38" t="s">
-        <v>523</v>
-      </c>
-      <c r="D38" t="n">
+        <v>558</v>
+      </c>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38"/>
+      <c r="M38"/>
+      <c r="N38"/>
+      <c r="O38"/>
+      <c r="P38"/>
+      <c r="Q38"/>
+      <c r="R38"/>
+      <c r="S38"/>
+      <c r="T38"/>
+      <c r="U38"/>
+      <c r="V38"/>
+      <c r="W38"/>
+      <c r="X38"/>
+      <c r="Y38"/>
+      <c r="Z38"/>
+      <c r="AA38"/>
+      <c r="AB38"/>
+      <c r="AC38"/>
+      <c r="AD38"/>
+      <c r="AE38"/>
+      <c r="AF38"/>
+      <c r="AG38"/>
+      <c r="AH38"/>
+      <c r="AI38"/>
+      <c r="AJ38"/>
+      <c r="AK38"/>
+      <c r="AL38"/>
+      <c r="AM38" t="n">
         <v>1970.0</v>
       </c>
-      <c r="E38" t="n">
+      <c r="AN38" t="n">
         <v>23.752</v>
       </c>
     </row>
@@ -7250,15 +9070,50 @@
         <v>492.0</v>
       </c>
       <c r="B39" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="C39" t="s">
-        <v>520</v>
-      </c>
-      <c r="D39" t="n">
+        <v>555</v>
+      </c>
+      <c r="D39"/>
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39"/>
+      <c r="H39"/>
+      <c r="I39"/>
+      <c r="J39"/>
+      <c r="K39"/>
+      <c r="L39"/>
+      <c r="M39"/>
+      <c r="N39"/>
+      <c r="O39"/>
+      <c r="P39"/>
+      <c r="Q39"/>
+      <c r="R39"/>
+      <c r="S39"/>
+      <c r="T39"/>
+      <c r="U39"/>
+      <c r="V39"/>
+      <c r="W39"/>
+      <c r="X39"/>
+      <c r="Y39"/>
+      <c r="Z39"/>
+      <c r="AA39"/>
+      <c r="AB39"/>
+      <c r="AC39"/>
+      <c r="AD39"/>
+      <c r="AE39"/>
+      <c r="AF39"/>
+      <c r="AG39"/>
+      <c r="AH39"/>
+      <c r="AI39"/>
+      <c r="AJ39"/>
+      <c r="AK39"/>
+      <c r="AL39"/>
+      <c r="AM39" t="n">
         <v>1980.0</v>
       </c>
-      <c r="E39" t="n">
+      <c r="AN39" t="n">
         <v>2.228955939</v>
       </c>
     </row>
@@ -7267,15 +9122,50 @@
         <v>492.0</v>
       </c>
       <c r="B40" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="C40" t="s">
-        <v>523</v>
-      </c>
-      <c r="D40" t="n">
+        <v>558</v>
+      </c>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40"/>
+      <c r="J40"/>
+      <c r="K40"/>
+      <c r="L40"/>
+      <c r="M40"/>
+      <c r="N40"/>
+      <c r="O40"/>
+      <c r="P40"/>
+      <c r="Q40"/>
+      <c r="R40"/>
+      <c r="S40"/>
+      <c r="T40"/>
+      <c r="U40"/>
+      <c r="V40"/>
+      <c r="W40"/>
+      <c r="X40"/>
+      <c r="Y40"/>
+      <c r="Z40"/>
+      <c r="AA40"/>
+      <c r="AB40"/>
+      <c r="AC40"/>
+      <c r="AD40"/>
+      <c r="AE40"/>
+      <c r="AF40"/>
+      <c r="AG40"/>
+      <c r="AH40"/>
+      <c r="AI40"/>
+      <c r="AJ40"/>
+      <c r="AK40"/>
+      <c r="AL40"/>
+      <c r="AM40" t="n">
         <v>1980.0</v>
       </c>
-      <c r="E40" t="n">
+      <c r="AN40" t="n">
         <v>26.551</v>
       </c>
     </row>
@@ -7284,15 +9174,50 @@
         <v>492.0</v>
       </c>
       <c r="B41" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="C41" t="s">
-        <v>520</v>
-      </c>
-      <c r="D41" t="n">
+        <v>555</v>
+      </c>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="I41"/>
+      <c r="J41"/>
+      <c r="K41"/>
+      <c r="L41"/>
+      <c r="M41"/>
+      <c r="N41"/>
+      <c r="O41"/>
+      <c r="P41"/>
+      <c r="Q41"/>
+      <c r="R41"/>
+      <c r="S41"/>
+      <c r="T41"/>
+      <c r="U41"/>
+      <c r="V41"/>
+      <c r="W41"/>
+      <c r="X41"/>
+      <c r="Y41"/>
+      <c r="Z41"/>
+      <c r="AA41"/>
+      <c r="AB41"/>
+      <c r="AC41"/>
+      <c r="AD41"/>
+      <c r="AE41"/>
+      <c r="AF41"/>
+      <c r="AG41"/>
+      <c r="AH41"/>
+      <c r="AI41"/>
+      <c r="AJ41"/>
+      <c r="AK41"/>
+      <c r="AL41"/>
+      <c r="AM41" t="n">
         <v>1990.0</v>
       </c>
-      <c r="E41" t="n">
+      <c r="AN41" t="n">
         <v>2.485107892</v>
       </c>
     </row>
@@ -7301,15 +9226,50 @@
         <v>492.0</v>
       </c>
       <c r="B42" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="C42" t="s">
-        <v>523</v>
-      </c>
-      <c r="D42" t="n">
+        <v>558</v>
+      </c>
+      <c r="D42"/>
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42"/>
+      <c r="H42"/>
+      <c r="I42"/>
+      <c r="J42"/>
+      <c r="K42"/>
+      <c r="L42"/>
+      <c r="M42"/>
+      <c r="N42"/>
+      <c r="O42"/>
+      <c r="P42"/>
+      <c r="Q42"/>
+      <c r="R42"/>
+      <c r="S42"/>
+      <c r="T42"/>
+      <c r="U42"/>
+      <c r="V42"/>
+      <c r="W42"/>
+      <c r="X42"/>
+      <c r="Y42"/>
+      <c r="Z42"/>
+      <c r="AA42"/>
+      <c r="AB42"/>
+      <c r="AC42"/>
+      <c r="AD42"/>
+      <c r="AE42"/>
+      <c r="AF42"/>
+      <c r="AG42"/>
+      <c r="AH42"/>
+      <c r="AI42"/>
+      <c r="AJ42"/>
+      <c r="AK42"/>
+      <c r="AL42"/>
+      <c r="AM42" t="n">
         <v>1990.0</v>
       </c>
-      <c r="E42" t="n">
+      <c r="AN42" t="n">
         <v>29.972</v>
       </c>
     </row>
@@ -7318,15 +9278,50 @@
         <v>492.0</v>
       </c>
       <c r="B43" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="C43" t="s">
-        <v>522</v>
-      </c>
-      <c r="D43" t="n">
+        <v>557</v>
+      </c>
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43"/>
+      <c r="H43"/>
+      <c r="I43"/>
+      <c r="J43"/>
+      <c r="K43"/>
+      <c r="L43"/>
+      <c r="M43"/>
+      <c r="N43"/>
+      <c r="O43"/>
+      <c r="P43"/>
+      <c r="Q43"/>
+      <c r="R43"/>
+      <c r="S43"/>
+      <c r="T43"/>
+      <c r="U43"/>
+      <c r="V43"/>
+      <c r="W43"/>
+      <c r="X43"/>
+      <c r="Y43"/>
+      <c r="Z43"/>
+      <c r="AA43"/>
+      <c r="AB43"/>
+      <c r="AC43"/>
+      <c r="AD43"/>
+      <c r="AE43"/>
+      <c r="AF43"/>
+      <c r="AG43"/>
+      <c r="AH43"/>
+      <c r="AI43"/>
+      <c r="AJ43"/>
+      <c r="AK43"/>
+      <c r="AL43"/>
+      <c r="AM43" t="n">
         <v>1995.0</v>
       </c>
-      <c r="E43" t="n">
+      <c r="AN43" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -7335,15 +9330,50 @@
         <v>492.0</v>
       </c>
       <c r="B44" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="C44" t="s">
-        <v>522</v>
-      </c>
-      <c r="D44" t="n">
+        <v>557</v>
+      </c>
+      <c r="D44"/>
+      <c r="E44"/>
+      <c r="F44"/>
+      <c r="G44"/>
+      <c r="H44"/>
+      <c r="I44"/>
+      <c r="J44"/>
+      <c r="K44"/>
+      <c r="L44"/>
+      <c r="M44"/>
+      <c r="N44"/>
+      <c r="O44"/>
+      <c r="P44"/>
+      <c r="Q44"/>
+      <c r="R44"/>
+      <c r="S44"/>
+      <c r="T44"/>
+      <c r="U44"/>
+      <c r="V44"/>
+      <c r="W44"/>
+      <c r="X44"/>
+      <c r="Y44"/>
+      <c r="Z44"/>
+      <c r="AA44"/>
+      <c r="AB44"/>
+      <c r="AC44"/>
+      <c r="AD44"/>
+      <c r="AE44"/>
+      <c r="AF44"/>
+      <c r="AG44"/>
+      <c r="AH44"/>
+      <c r="AI44"/>
+      <c r="AJ44"/>
+      <c r="AK44"/>
+      <c r="AL44"/>
+      <c r="AM44" t="n">
         <v>1996.0</v>
       </c>
-      <c r="E44" t="n">
+      <c r="AN44" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -7352,15 +9382,50 @@
         <v>492.0</v>
       </c>
       <c r="B45" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="C45" t="s">
-        <v>522</v>
-      </c>
-      <c r="D45" t="n">
+        <v>557</v>
+      </c>
+      <c r="D45"/>
+      <c r="E45"/>
+      <c r="F45"/>
+      <c r="G45"/>
+      <c r="H45"/>
+      <c r="I45"/>
+      <c r="J45"/>
+      <c r="K45"/>
+      <c r="L45"/>
+      <c r="M45"/>
+      <c r="N45"/>
+      <c r="O45"/>
+      <c r="P45"/>
+      <c r="Q45"/>
+      <c r="R45"/>
+      <c r="S45"/>
+      <c r="T45"/>
+      <c r="U45"/>
+      <c r="V45"/>
+      <c r="W45"/>
+      <c r="X45"/>
+      <c r="Y45"/>
+      <c r="Z45"/>
+      <c r="AA45"/>
+      <c r="AB45"/>
+      <c r="AC45"/>
+      <c r="AD45"/>
+      <c r="AE45"/>
+      <c r="AF45"/>
+      <c r="AG45"/>
+      <c r="AH45"/>
+      <c r="AI45"/>
+      <c r="AJ45"/>
+      <c r="AK45"/>
+      <c r="AL45"/>
+      <c r="AM45" t="n">
         <v>1997.0</v>
       </c>
-      <c r="E45" t="n">
+      <c r="AN45" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -7369,15 +9434,50 @@
         <v>492.0</v>
       </c>
       <c r="B46" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="C46" t="s">
-        <v>522</v>
-      </c>
-      <c r="D46" t="n">
+        <v>557</v>
+      </c>
+      <c r="D46"/>
+      <c r="E46"/>
+      <c r="F46"/>
+      <c r="G46"/>
+      <c r="H46"/>
+      <c r="I46"/>
+      <c r="J46"/>
+      <c r="K46"/>
+      <c r="L46"/>
+      <c r="M46"/>
+      <c r="N46"/>
+      <c r="O46"/>
+      <c r="P46"/>
+      <c r="Q46"/>
+      <c r="R46"/>
+      <c r="S46"/>
+      <c r="T46"/>
+      <c r="U46"/>
+      <c r="V46"/>
+      <c r="W46"/>
+      <c r="X46"/>
+      <c r="Y46"/>
+      <c r="Z46"/>
+      <c r="AA46"/>
+      <c r="AB46"/>
+      <c r="AC46"/>
+      <c r="AD46"/>
+      <c r="AE46"/>
+      <c r="AF46"/>
+      <c r="AG46"/>
+      <c r="AH46"/>
+      <c r="AI46"/>
+      <c r="AJ46"/>
+      <c r="AK46"/>
+      <c r="AL46"/>
+      <c r="AM46" t="n">
         <v>1998.0</v>
       </c>
-      <c r="E46" t="n">
+      <c r="AN46" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -7386,15 +9486,50 @@
         <v>492.0</v>
       </c>
       <c r="B47" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="C47" t="s">
-        <v>522</v>
-      </c>
-      <c r="D47" t="n">
+        <v>557</v>
+      </c>
+      <c r="D47"/>
+      <c r="E47"/>
+      <c r="F47"/>
+      <c r="G47"/>
+      <c r="H47"/>
+      <c r="I47"/>
+      <c r="J47"/>
+      <c r="K47"/>
+      <c r="L47"/>
+      <c r="M47"/>
+      <c r="N47"/>
+      <c r="O47"/>
+      <c r="P47"/>
+      <c r="Q47"/>
+      <c r="R47"/>
+      <c r="S47"/>
+      <c r="T47"/>
+      <c r="U47"/>
+      <c r="V47"/>
+      <c r="W47"/>
+      <c r="X47"/>
+      <c r="Y47"/>
+      <c r="Z47"/>
+      <c r="AA47"/>
+      <c r="AB47"/>
+      <c r="AC47"/>
+      <c r="AD47"/>
+      <c r="AE47"/>
+      <c r="AF47"/>
+      <c r="AG47"/>
+      <c r="AH47"/>
+      <c r="AI47"/>
+      <c r="AJ47"/>
+      <c r="AK47"/>
+      <c r="AL47"/>
+      <c r="AM47" t="n">
         <v>1999.0</v>
       </c>
-      <c r="E47" t="n">
+      <c r="AN47" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -7403,15 +9538,50 @@
         <v>492.0</v>
       </c>
       <c r="B48" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="C48" t="s">
-        <v>520</v>
-      </c>
-      <c r="D48" t="n">
+        <v>555</v>
+      </c>
+      <c r="D48"/>
+      <c r="E48"/>
+      <c r="F48"/>
+      <c r="G48"/>
+      <c r="H48"/>
+      <c r="I48"/>
+      <c r="J48"/>
+      <c r="K48"/>
+      <c r="L48"/>
+      <c r="M48"/>
+      <c r="N48"/>
+      <c r="O48"/>
+      <c r="P48"/>
+      <c r="Q48"/>
+      <c r="R48"/>
+      <c r="S48"/>
+      <c r="T48"/>
+      <c r="U48"/>
+      <c r="V48"/>
+      <c r="W48"/>
+      <c r="X48"/>
+      <c r="Y48"/>
+      <c r="Z48"/>
+      <c r="AA48"/>
+      <c r="AB48"/>
+      <c r="AC48"/>
+      <c r="AD48"/>
+      <c r="AE48"/>
+      <c r="AF48"/>
+      <c r="AG48"/>
+      <c r="AH48"/>
+      <c r="AI48"/>
+      <c r="AJ48"/>
+      <c r="AK48"/>
+      <c r="AL48"/>
+      <c r="AM48" t="n">
         <v>2000.0</v>
       </c>
-      <c r="E48" t="n">
+      <c r="AN48" t="n">
         <v>2.762145712</v>
       </c>
     </row>
@@ -7420,15 +9590,50 @@
         <v>492.0</v>
       </c>
       <c r="B49" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="C49" t="s">
-        <v>522</v>
-      </c>
-      <c r="D49" t="n">
+        <v>557</v>
+      </c>
+      <c r="D49"/>
+      <c r="E49"/>
+      <c r="F49"/>
+      <c r="G49"/>
+      <c r="H49"/>
+      <c r="I49"/>
+      <c r="J49"/>
+      <c r="K49"/>
+      <c r="L49"/>
+      <c r="M49"/>
+      <c r="N49"/>
+      <c r="O49"/>
+      <c r="P49"/>
+      <c r="Q49"/>
+      <c r="R49"/>
+      <c r="S49"/>
+      <c r="T49"/>
+      <c r="U49"/>
+      <c r="V49"/>
+      <c r="W49"/>
+      <c r="X49"/>
+      <c r="Y49"/>
+      <c r="Z49"/>
+      <c r="AA49"/>
+      <c r="AB49"/>
+      <c r="AC49"/>
+      <c r="AD49"/>
+      <c r="AE49"/>
+      <c r="AF49"/>
+      <c r="AG49"/>
+      <c r="AH49"/>
+      <c r="AI49"/>
+      <c r="AJ49"/>
+      <c r="AK49"/>
+      <c r="AL49"/>
+      <c r="AM49" t="n">
         <v>2000.0</v>
       </c>
-      <c r="E49" t="n">
+      <c r="AN49" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -7437,15 +9642,50 @@
         <v>492.0</v>
       </c>
       <c r="B50" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="C50" t="s">
-        <v>523</v>
-      </c>
-      <c r="D50" t="n">
+        <v>558</v>
+      </c>
+      <c r="D50"/>
+      <c r="E50"/>
+      <c r="F50"/>
+      <c r="G50"/>
+      <c r="H50"/>
+      <c r="I50"/>
+      <c r="J50"/>
+      <c r="K50"/>
+      <c r="L50"/>
+      <c r="M50"/>
+      <c r="N50"/>
+      <c r="O50"/>
+      <c r="P50"/>
+      <c r="Q50"/>
+      <c r="R50"/>
+      <c r="S50"/>
+      <c r="T50"/>
+      <c r="U50"/>
+      <c r="V50"/>
+      <c r="W50"/>
+      <c r="X50"/>
+      <c r="Y50"/>
+      <c r="Z50"/>
+      <c r="AA50"/>
+      <c r="AB50"/>
+      <c r="AC50"/>
+      <c r="AD50"/>
+      <c r="AE50"/>
+      <c r="AF50"/>
+      <c r="AG50"/>
+      <c r="AH50"/>
+      <c r="AI50"/>
+      <c r="AJ50"/>
+      <c r="AK50"/>
+      <c r="AL50"/>
+      <c r="AM50" t="n">
         <v>2000.0</v>
       </c>
-      <c r="E50" t="n">
+      <c r="AN50" t="n">
         <v>31.693</v>
       </c>
     </row>
@@ -7454,15 +9694,50 @@
         <v>492.0</v>
       </c>
       <c r="B51" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="C51" t="s">
-        <v>524</v>
-      </c>
-      <c r="D51" t="n">
+        <v>559</v>
+      </c>
+      <c r="D51"/>
+      <c r="E51"/>
+      <c r="F51"/>
+      <c r="G51"/>
+      <c r="H51"/>
+      <c r="I51"/>
+      <c r="J51"/>
+      <c r="K51"/>
+      <c r="L51"/>
+      <c r="M51"/>
+      <c r="N51"/>
+      <c r="O51"/>
+      <c r="P51"/>
+      <c r="Q51"/>
+      <c r="R51"/>
+      <c r="S51"/>
+      <c r="T51"/>
+      <c r="U51"/>
+      <c r="V51"/>
+      <c r="W51"/>
+      <c r="X51"/>
+      <c r="Y51"/>
+      <c r="Z51"/>
+      <c r="AA51"/>
+      <c r="AB51"/>
+      <c r="AC51"/>
+      <c r="AD51"/>
+      <c r="AE51"/>
+      <c r="AF51"/>
+      <c r="AG51"/>
+      <c r="AH51"/>
+      <c r="AI51"/>
+      <c r="AJ51"/>
+      <c r="AK51"/>
+      <c r="AL51"/>
+      <c r="AM51" t="n">
         <v>2000.0</v>
       </c>
-      <c r="E51" t="n">
+      <c r="AN51" t="n">
         <v>36.0</v>
       </c>
     </row>
@@ -7471,15 +9746,50 @@
         <v>492.0</v>
       </c>
       <c r="B52" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="C52" t="s">
-        <v>525</v>
-      </c>
-      <c r="D52" t="n">
+        <v>560</v>
+      </c>
+      <c r="D52"/>
+      <c r="E52"/>
+      <c r="F52"/>
+      <c r="G52"/>
+      <c r="H52"/>
+      <c r="I52"/>
+      <c r="J52"/>
+      <c r="K52"/>
+      <c r="L52"/>
+      <c r="M52"/>
+      <c r="N52"/>
+      <c r="O52"/>
+      <c r="P52"/>
+      <c r="Q52"/>
+      <c r="R52"/>
+      <c r="S52"/>
+      <c r="T52"/>
+      <c r="U52"/>
+      <c r="V52"/>
+      <c r="W52"/>
+      <c r="X52"/>
+      <c r="Y52"/>
+      <c r="Z52"/>
+      <c r="AA52"/>
+      <c r="AB52"/>
+      <c r="AC52"/>
+      <c r="AD52"/>
+      <c r="AE52"/>
+      <c r="AF52"/>
+      <c r="AG52"/>
+      <c r="AH52"/>
+      <c r="AI52"/>
+      <c r="AJ52"/>
+      <c r="AK52"/>
+      <c r="AL52"/>
+      <c r="AM52" t="n">
         <v>2000.0</v>
       </c>
-      <c r="E52" t="n">
+      <c r="AN52" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -7488,15 +9798,50 @@
         <v>492.0</v>
       </c>
       <c r="B53" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="C53" t="s">
-        <v>522</v>
-      </c>
-      <c r="D53" t="n">
+        <v>557</v>
+      </c>
+      <c r="D53"/>
+      <c r="E53"/>
+      <c r="F53"/>
+      <c r="G53"/>
+      <c r="H53"/>
+      <c r="I53"/>
+      <c r="J53"/>
+      <c r="K53"/>
+      <c r="L53"/>
+      <c r="M53"/>
+      <c r="N53"/>
+      <c r="O53"/>
+      <c r="P53"/>
+      <c r="Q53"/>
+      <c r="R53"/>
+      <c r="S53"/>
+      <c r="T53"/>
+      <c r="U53"/>
+      <c r="V53"/>
+      <c r="W53"/>
+      <c r="X53"/>
+      <c r="Y53"/>
+      <c r="Z53"/>
+      <c r="AA53"/>
+      <c r="AB53"/>
+      <c r="AC53"/>
+      <c r="AD53"/>
+      <c r="AE53"/>
+      <c r="AF53"/>
+      <c r="AG53"/>
+      <c r="AH53"/>
+      <c r="AI53"/>
+      <c r="AJ53"/>
+      <c r="AK53"/>
+      <c r="AL53"/>
+      <c r="AM53" t="n">
         <v>2001.0</v>
       </c>
-      <c r="E53" t="n">
+      <c r="AN53" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -7505,15 +9850,50 @@
         <v>492.0</v>
       </c>
       <c r="B54" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="C54" t="s">
-        <v>522</v>
-      </c>
-      <c r="D54" t="n">
+        <v>557</v>
+      </c>
+      <c r="D54"/>
+      <c r="E54"/>
+      <c r="F54"/>
+      <c r="G54"/>
+      <c r="H54"/>
+      <c r="I54"/>
+      <c r="J54"/>
+      <c r="K54"/>
+      <c r="L54"/>
+      <c r="M54"/>
+      <c r="N54"/>
+      <c r="O54"/>
+      <c r="P54"/>
+      <c r="Q54"/>
+      <c r="R54"/>
+      <c r="S54"/>
+      <c r="T54"/>
+      <c r="U54"/>
+      <c r="V54"/>
+      <c r="W54"/>
+      <c r="X54"/>
+      <c r="Y54"/>
+      <c r="Z54"/>
+      <c r="AA54"/>
+      <c r="AB54"/>
+      <c r="AC54"/>
+      <c r="AD54"/>
+      <c r="AE54"/>
+      <c r="AF54"/>
+      <c r="AG54"/>
+      <c r="AH54"/>
+      <c r="AI54"/>
+      <c r="AJ54"/>
+      <c r="AK54"/>
+      <c r="AL54"/>
+      <c r="AM54" t="n">
         <v>2002.0</v>
       </c>
-      <c r="E54" t="n">
+      <c r="AN54" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -7522,15 +9902,50 @@
         <v>492.0</v>
       </c>
       <c r="B55" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="C55" t="s">
-        <v>522</v>
-      </c>
-      <c r="D55" t="n">
+        <v>557</v>
+      </c>
+      <c r="D55"/>
+      <c r="E55"/>
+      <c r="F55"/>
+      <c r="G55"/>
+      <c r="H55"/>
+      <c r="I55"/>
+      <c r="J55"/>
+      <c r="K55"/>
+      <c r="L55"/>
+      <c r="M55"/>
+      <c r="N55"/>
+      <c r="O55"/>
+      <c r="P55"/>
+      <c r="Q55"/>
+      <c r="R55"/>
+      <c r="S55"/>
+      <c r="T55"/>
+      <c r="U55"/>
+      <c r="V55"/>
+      <c r="W55"/>
+      <c r="X55"/>
+      <c r="Y55"/>
+      <c r="Z55"/>
+      <c r="AA55"/>
+      <c r="AB55"/>
+      <c r="AC55"/>
+      <c r="AD55"/>
+      <c r="AE55"/>
+      <c r="AF55"/>
+      <c r="AG55"/>
+      <c r="AH55"/>
+      <c r="AI55"/>
+      <c r="AJ55"/>
+      <c r="AK55"/>
+      <c r="AL55"/>
+      <c r="AM55" t="n">
         <v>2003.0</v>
       </c>
-      <c r="E55" t="n">
+      <c r="AN55" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -7539,15 +9954,50 @@
         <v>492.0</v>
       </c>
       <c r="B56" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="C56" t="s">
-        <v>521</v>
-      </c>
-      <c r="D56" t="n">
+        <v>556</v>
+      </c>
+      <c r="D56"/>
+      <c r="E56"/>
+      <c r="F56"/>
+      <c r="G56"/>
+      <c r="H56"/>
+      <c r="I56"/>
+      <c r="J56"/>
+      <c r="K56"/>
+      <c r="L56"/>
+      <c r="M56"/>
+      <c r="N56"/>
+      <c r="O56"/>
+      <c r="P56"/>
+      <c r="Q56"/>
+      <c r="R56"/>
+      <c r="S56"/>
+      <c r="T56"/>
+      <c r="U56"/>
+      <c r="V56"/>
+      <c r="W56"/>
+      <c r="X56"/>
+      <c r="Y56"/>
+      <c r="Z56"/>
+      <c r="AA56"/>
+      <c r="AB56"/>
+      <c r="AC56"/>
+      <c r="AD56"/>
+      <c r="AE56"/>
+      <c r="AF56"/>
+      <c r="AG56"/>
+      <c r="AH56"/>
+      <c r="AI56"/>
+      <c r="AJ56"/>
+      <c r="AK56"/>
+      <c r="AL56"/>
+      <c r="AM56" t="n">
         <v>2004.0</v>
       </c>
-      <c r="E56" t="n">
+      <c r="AN56" t="n">
         <v>2.8</v>
       </c>
     </row>
@@ -7556,15 +10006,50 @@
         <v>492.0</v>
       </c>
       <c r="B57" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="C57" t="s">
-        <v>522</v>
-      </c>
-      <c r="D57" t="n">
+        <v>557</v>
+      </c>
+      <c r="D57"/>
+      <c r="E57"/>
+      <c r="F57"/>
+      <c r="G57"/>
+      <c r="H57"/>
+      <c r="I57"/>
+      <c r="J57"/>
+      <c r="K57"/>
+      <c r="L57"/>
+      <c r="M57"/>
+      <c r="N57"/>
+      <c r="O57"/>
+      <c r="P57"/>
+      <c r="Q57"/>
+      <c r="R57"/>
+      <c r="S57"/>
+      <c r="T57"/>
+      <c r="U57"/>
+      <c r="V57"/>
+      <c r="W57"/>
+      <c r="X57"/>
+      <c r="Y57"/>
+      <c r="Z57"/>
+      <c r="AA57"/>
+      <c r="AB57"/>
+      <c r="AC57"/>
+      <c r="AD57"/>
+      <c r="AE57"/>
+      <c r="AF57"/>
+      <c r="AG57"/>
+      <c r="AH57"/>
+      <c r="AI57"/>
+      <c r="AJ57"/>
+      <c r="AK57"/>
+      <c r="AL57"/>
+      <c r="AM57" t="n">
         <v>2004.0</v>
       </c>
-      <c r="E57" t="n">
+      <c r="AN57" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -7573,15 +10058,50 @@
         <v>492.0</v>
       </c>
       <c r="B58" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="C58" t="s">
-        <v>521</v>
-      </c>
-      <c r="D58" t="n">
+        <v>556</v>
+      </c>
+      <c r="D58"/>
+      <c r="E58"/>
+      <c r="F58"/>
+      <c r="G58"/>
+      <c r="H58"/>
+      <c r="I58"/>
+      <c r="J58"/>
+      <c r="K58"/>
+      <c r="L58"/>
+      <c r="M58"/>
+      <c r="N58"/>
+      <c r="O58"/>
+      <c r="P58"/>
+      <c r="Q58"/>
+      <c r="R58"/>
+      <c r="S58"/>
+      <c r="T58"/>
+      <c r="U58"/>
+      <c r="V58"/>
+      <c r="W58"/>
+      <c r="X58"/>
+      <c r="Y58"/>
+      <c r="Z58"/>
+      <c r="AA58"/>
+      <c r="AB58"/>
+      <c r="AC58"/>
+      <c r="AD58"/>
+      <c r="AE58"/>
+      <c r="AF58"/>
+      <c r="AG58"/>
+      <c r="AH58"/>
+      <c r="AI58"/>
+      <c r="AJ58"/>
+      <c r="AK58"/>
+      <c r="AL58"/>
+      <c r="AM58" t="n">
         <v>2005.0</v>
       </c>
-      <c r="E58" t="n">
+      <c r="AN58" t="n">
         <v>2.8</v>
       </c>
     </row>
@@ -7590,15 +10110,50 @@
         <v>492.0</v>
       </c>
       <c r="B59" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="C59" t="s">
-        <v>522</v>
-      </c>
-      <c r="D59" t="n">
+        <v>557</v>
+      </c>
+      <c r="D59"/>
+      <c r="E59"/>
+      <c r="F59"/>
+      <c r="G59"/>
+      <c r="H59"/>
+      <c r="I59"/>
+      <c r="J59"/>
+      <c r="K59"/>
+      <c r="L59"/>
+      <c r="M59"/>
+      <c r="N59"/>
+      <c r="O59"/>
+      <c r="P59"/>
+      <c r="Q59"/>
+      <c r="R59"/>
+      <c r="S59"/>
+      <c r="T59"/>
+      <c r="U59"/>
+      <c r="V59"/>
+      <c r="W59"/>
+      <c r="X59"/>
+      <c r="Y59"/>
+      <c r="Z59"/>
+      <c r="AA59"/>
+      <c r="AB59"/>
+      <c r="AC59"/>
+      <c r="AD59"/>
+      <c r="AE59"/>
+      <c r="AF59"/>
+      <c r="AG59"/>
+      <c r="AH59"/>
+      <c r="AI59"/>
+      <c r="AJ59"/>
+      <c r="AK59"/>
+      <c r="AL59"/>
+      <c r="AM59" t="n">
         <v>2005.0</v>
       </c>
-      <c r="E59" t="n">
+      <c r="AN59" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -7607,15 +10162,50 @@
         <v>492.0</v>
       </c>
       <c r="B60" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="C60" t="s">
-        <v>521</v>
-      </c>
-      <c r="D60" t="n">
+        <v>556</v>
+      </c>
+      <c r="D60"/>
+      <c r="E60"/>
+      <c r="F60"/>
+      <c r="G60"/>
+      <c r="H60"/>
+      <c r="I60"/>
+      <c r="J60"/>
+      <c r="K60"/>
+      <c r="L60"/>
+      <c r="M60"/>
+      <c r="N60"/>
+      <c r="O60"/>
+      <c r="P60"/>
+      <c r="Q60"/>
+      <c r="R60"/>
+      <c r="S60"/>
+      <c r="T60"/>
+      <c r="U60"/>
+      <c r="V60"/>
+      <c r="W60"/>
+      <c r="X60"/>
+      <c r="Y60"/>
+      <c r="Z60"/>
+      <c r="AA60"/>
+      <c r="AB60"/>
+      <c r="AC60"/>
+      <c r="AD60"/>
+      <c r="AE60"/>
+      <c r="AF60"/>
+      <c r="AG60"/>
+      <c r="AH60"/>
+      <c r="AI60"/>
+      <c r="AJ60"/>
+      <c r="AK60"/>
+      <c r="AL60"/>
+      <c r="AM60" t="n">
         <v>2006.0</v>
       </c>
-      <c r="E60" t="n">
+      <c r="AN60" t="n">
         <v>2.8</v>
       </c>
     </row>
@@ -7624,15 +10214,50 @@
         <v>492.0</v>
       </c>
       <c r="B61" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="C61" t="s">
-        <v>522</v>
-      </c>
-      <c r="D61" t="n">
+        <v>557</v>
+      </c>
+      <c r="D61"/>
+      <c r="E61"/>
+      <c r="F61"/>
+      <c r="G61"/>
+      <c r="H61"/>
+      <c r="I61"/>
+      <c r="J61"/>
+      <c r="K61"/>
+      <c r="L61"/>
+      <c r="M61"/>
+      <c r="N61"/>
+      <c r="O61"/>
+      <c r="P61"/>
+      <c r="Q61"/>
+      <c r="R61"/>
+      <c r="S61"/>
+      <c r="T61"/>
+      <c r="U61"/>
+      <c r="V61"/>
+      <c r="W61"/>
+      <c r="X61"/>
+      <c r="Y61"/>
+      <c r="Z61"/>
+      <c r="AA61"/>
+      <c r="AB61"/>
+      <c r="AC61"/>
+      <c r="AD61"/>
+      <c r="AE61"/>
+      <c r="AF61"/>
+      <c r="AG61"/>
+      <c r="AH61"/>
+      <c r="AI61"/>
+      <c r="AJ61"/>
+      <c r="AK61"/>
+      <c r="AL61"/>
+      <c r="AM61" t="n">
         <v>2006.0</v>
       </c>
-      <c r="E61" t="n">
+      <c r="AN61" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -7641,15 +10266,50 @@
         <v>492.0</v>
       </c>
       <c r="B62" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="C62" t="s">
-        <v>521</v>
-      </c>
-      <c r="D62" t="n">
+        <v>556</v>
+      </c>
+      <c r="D62"/>
+      <c r="E62"/>
+      <c r="F62"/>
+      <c r="G62"/>
+      <c r="H62"/>
+      <c r="I62"/>
+      <c r="J62"/>
+      <c r="K62"/>
+      <c r="L62"/>
+      <c r="M62"/>
+      <c r="N62"/>
+      <c r="O62"/>
+      <c r="P62"/>
+      <c r="Q62"/>
+      <c r="R62"/>
+      <c r="S62"/>
+      <c r="T62"/>
+      <c r="U62"/>
+      <c r="V62"/>
+      <c r="W62"/>
+      <c r="X62"/>
+      <c r="Y62"/>
+      <c r="Z62"/>
+      <c r="AA62"/>
+      <c r="AB62"/>
+      <c r="AC62"/>
+      <c r="AD62"/>
+      <c r="AE62"/>
+      <c r="AF62"/>
+      <c r="AG62"/>
+      <c r="AH62"/>
+      <c r="AI62"/>
+      <c r="AJ62"/>
+      <c r="AK62"/>
+      <c r="AL62"/>
+      <c r="AM62" t="n">
         <v>2007.0</v>
       </c>
-      <c r="E62" t="n">
+      <c r="AN62" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -7658,15 +10318,50 @@
         <v>492.0</v>
       </c>
       <c r="B63" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="C63" t="s">
-        <v>521</v>
-      </c>
-      <c r="D63" t="n">
+        <v>556</v>
+      </c>
+      <c r="D63"/>
+      <c r="E63"/>
+      <c r="F63"/>
+      <c r="G63"/>
+      <c r="H63"/>
+      <c r="I63"/>
+      <c r="J63"/>
+      <c r="K63"/>
+      <c r="L63"/>
+      <c r="M63"/>
+      <c r="N63"/>
+      <c r="O63"/>
+      <c r="P63"/>
+      <c r="Q63"/>
+      <c r="R63"/>
+      <c r="S63"/>
+      <c r="T63"/>
+      <c r="U63"/>
+      <c r="V63"/>
+      <c r="W63"/>
+      <c r="X63"/>
+      <c r="Y63"/>
+      <c r="Z63"/>
+      <c r="AA63"/>
+      <c r="AB63"/>
+      <c r="AC63"/>
+      <c r="AD63"/>
+      <c r="AE63"/>
+      <c r="AF63"/>
+      <c r="AG63"/>
+      <c r="AH63"/>
+      <c r="AI63"/>
+      <c r="AJ63"/>
+      <c r="AK63"/>
+      <c r="AL63"/>
+      <c r="AM63" t="n">
         <v>2008.0</v>
       </c>
-      <c r="E63" t="n">
+      <c r="AN63" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -7675,15 +10370,50 @@
         <v>492.0</v>
       </c>
       <c r="B64" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="C64" t="s">
-        <v>521</v>
-      </c>
-      <c r="D64" t="n">
+        <v>556</v>
+      </c>
+      <c r="D64"/>
+      <c r="E64"/>
+      <c r="F64"/>
+      <c r="G64"/>
+      <c r="H64"/>
+      <c r="I64"/>
+      <c r="J64"/>
+      <c r="K64"/>
+      <c r="L64"/>
+      <c r="M64"/>
+      <c r="N64"/>
+      <c r="O64"/>
+      <c r="P64"/>
+      <c r="Q64"/>
+      <c r="R64"/>
+      <c r="S64"/>
+      <c r="T64"/>
+      <c r="U64"/>
+      <c r="V64"/>
+      <c r="W64"/>
+      <c r="X64"/>
+      <c r="Y64"/>
+      <c r="Z64"/>
+      <c r="AA64"/>
+      <c r="AB64"/>
+      <c r="AC64"/>
+      <c r="AD64"/>
+      <c r="AE64"/>
+      <c r="AF64"/>
+      <c r="AG64"/>
+      <c r="AH64"/>
+      <c r="AI64"/>
+      <c r="AJ64"/>
+      <c r="AK64"/>
+      <c r="AL64"/>
+      <c r="AM64" t="n">
         <v>2009.0</v>
       </c>
-      <c r="E64" t="n">
+      <c r="AN64" t="n">
         <v>0.9</v>
       </c>
     </row>
@@ -7702,18 +10432,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="B1" t="s">
-        <v>529</v>
+        <v>564</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>530</v>
+        <v>565</v>
       </c>
       <c r="B2" t="s">
-        <v>531</v>
+        <v>566</v>
       </c>
     </row>
   </sheetData>
@@ -7731,58 +10461,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="B1" t="s">
-        <v>529</v>
+        <v>564</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>532</v>
+        <v>567</v>
       </c>
       <c r="B2" t="s">
-        <v>533</v>
+        <v>568</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>532</v>
+        <v>567</v>
       </c>
       <c r="B3" t="s">
-        <v>534</v>
+        <v>569</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>532</v>
+        <v>567</v>
       </c>
       <c r="B4" t="s">
-        <v>535</v>
+        <v>570</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>532</v>
+        <v>567</v>
       </c>
       <c r="B5" t="s">
-        <v>536</v>
+        <v>571</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>532</v>
+        <v>567</v>
       </c>
       <c r="B6" t="s">
-        <v>537</v>
+        <v>572</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>532</v>
+        <v>567</v>
       </c>
       <c r="B7" t="s">
-        <v>538</v>
+        <v>573</v>
       </c>
     </row>
   </sheetData>
@@ -7800,58 +10530,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="B1" t="s">
-        <v>529</v>
+        <v>564</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>520</v>
+        <v>555</v>
       </c>
       <c r="B2" t="s">
-        <v>539</v>
+        <v>574</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>521</v>
+        <v>556</v>
       </c>
       <c r="B3" t="s">
-        <v>540</v>
+        <v>575</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>522</v>
+        <v>557</v>
       </c>
       <c r="B4" t="s">
-        <v>541</v>
+        <v>576</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>523</v>
+        <v>558</v>
       </c>
       <c r="B5" t="s">
-        <v>542</v>
+        <v>577</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>524</v>
+        <v>559</v>
       </c>
       <c r="B6" t="s">
-        <v>543</v>
+        <v>578</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>525</v>
+        <v>560</v>
       </c>
       <c r="B7" t="s">
-        <v>544</v>
+        <v>579</v>
       </c>
     </row>
   </sheetData>
@@ -7869,58 +10599,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="B1" t="s">
-        <v>529</v>
+        <v>564</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>520</v>
+        <v>555</v>
       </c>
       <c r="B2" t="s">
-        <v>545</v>
+        <v>580</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>521</v>
+        <v>556</v>
       </c>
       <c r="B3" t="s">
-        <v>546</v>
+        <v>581</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>522</v>
+        <v>557</v>
       </c>
       <c r="B4" t="s">
-        <v>547</v>
+        <v>582</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>523</v>
+        <v>558</v>
       </c>
       <c r="B5" t="s">
-        <v>548</v>
+        <v>583</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>524</v>
+        <v>559</v>
       </c>
       <c r="B6" t="s">
-        <v>549</v>
+        <v>584</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>525</v>
+        <v>560</v>
       </c>
       <c r="B7" t="s">
-        <v>550</v>
+        <v>585</v>
       </c>
     </row>
   </sheetData>
@@ -7938,58 +10668,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="B1" t="s">
-        <v>529</v>
+        <v>564</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>520</v>
+        <v>555</v>
       </c>
       <c r="B2" t="s">
-        <v>551</v>
+        <v>586</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>521</v>
+        <v>556</v>
       </c>
       <c r="B3" t="s">
-        <v>552</v>
+        <v>587</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>522</v>
+        <v>557</v>
       </c>
       <c r="B4" t="s">
-        <v>553</v>
+        <v>588</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>523</v>
+        <v>558</v>
       </c>
       <c r="B5" t="s">
-        <v>554</v>
+        <v>589</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>524</v>
+        <v>559</v>
       </c>
       <c r="B6" t="s">
-        <v>555</v>
+        <v>590</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>525</v>
+        <v>560</v>
       </c>
       <c r="B7" t="s">
-        <v>556</v>
+        <v>591</v>
       </c>
     </row>
   </sheetData>
